--- a/Översikt GAGNEF.xlsx
+++ b/Översikt GAGNEF.xlsx
@@ -572,7 +572,7 @@
         <v>44397</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44067</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44896</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>45055</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>43696</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>43700</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44067</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>44958</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>45056</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>44929</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>43594</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>43628</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1645,7 +1645,7 @@
         <v>43804</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         <v>44270</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>44511</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         <v>45061</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>45146</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>43396</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>43397</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>43403</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43404</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2318,7 +2318,7 @@
         <v>43405</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>43406</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>43410</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>43413</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>43413</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>43416</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>43417</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43420</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>43420</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43430</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>43430</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43430</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43431</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43437</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43439</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43447</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         <v>43462</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         <v>43472</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         <v>43474</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3478,7 +3478,7 @@
         <v>43476</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         <v>43483</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         <v>43494</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3649,7 +3649,7 @@
         <v>43504</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>43514</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>43521</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>43528</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>43528</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         <v>43530</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
         <v>43539</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         <v>43546</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43552</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>43559</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>43564</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>43578</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>43591</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         <v>43594</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>43598</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>43601</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>43601</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>43604</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>43605</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
         <v>43605</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4789,7 +4789,7 @@
         <v>43607</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>43612</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>43619</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>43621</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>43633</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>43635</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>43636</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         <v>43636</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>43640</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         <v>43640</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         <v>43641</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         <v>43642</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>43642</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>43644</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>43644</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         <v>43648</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         <v>43650</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
         <v>43650</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         <v>43655</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         <v>43656</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5954,7 +5954,7 @@
         <v>43672</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6011,7 +6011,7 @@
         <v>43672</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6068,7 +6068,7 @@
         <v>43675</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>43684</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>43685</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         <v>43693</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6301,7 +6301,7 @@
         <v>43700</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6358,7 +6358,7 @@
         <v>43705</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6415,7 +6415,7 @@
         <v>43712</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         <v>43721</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         <v>43741</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6591,7 +6591,7 @@
         <v>43742</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6648,7 +6648,7 @@
         <v>43745</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6705,7 +6705,7 @@
         <v>43746</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6762,7 +6762,7 @@
         <v>43756</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>43762</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
         <v>43763</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6933,7 +6933,7 @@
         <v>43768</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6990,7 +6990,7 @@
         <v>43770</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7047,7 +7047,7 @@
         <v>43781</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7104,7 +7104,7 @@
         <v>43788</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>43802</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>43809</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>43811</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>43816</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>43818</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43833</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>43845</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>43845</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>43850</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>43861</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         <v>43866</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7798,7 +7798,7 @@
         <v>43920</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7855,7 +7855,7 @@
         <v>43921</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         <v>43929</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         <v>43930</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>43955</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>43968</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>43980</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         <v>43989</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8259,7 +8259,7 @@
         <v>44000</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8321,7 +8321,7 @@
         <v>44013</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8383,7 +8383,7 @@
         <v>44014</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8445,7 +8445,7 @@
         <v>44014</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>44015</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44042</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>44053</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>44076</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>44077</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8802,7 +8802,7 @@
         <v>44078</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8864,7 +8864,7 @@
         <v>44081</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8921,7 +8921,7 @@
         <v>44081</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8983,7 +8983,7 @@
         <v>44085</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         <v>44089</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>44103</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>44110</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>44111</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         <v>44113</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>44131</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9382,7 +9382,7 @@
         <v>44144</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9439,7 +9439,7 @@
         <v>44145</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44154</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>44162</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9610,7 +9610,7 @@
         <v>44165</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>44172</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>44172</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>44183</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>44186</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>44192</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>44215</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>44247</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>44253</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>44264</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>44264</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>44266</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>44320</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>44321</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>44326</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>44341</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
         <v>44376</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>44378</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10651,7 +10651,7 @@
         <v>44379</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10708,7 +10708,7 @@
         <v>44384</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10765,7 +10765,7 @@
         <v>44396</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10822,7 +10822,7 @@
         <v>44396</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10879,7 +10879,7 @@
         <v>44396</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10936,7 +10936,7 @@
         <v>44445</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10993,7 +10993,7 @@
         <v>44452</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11050,7 +11050,7 @@
         <v>44474</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         <v>44476</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11164,7 +11164,7 @@
         <v>44494</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11221,7 +11221,7 @@
         <v>44509</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11278,7 +11278,7 @@
         <v>44511</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11335,7 +11335,7 @@
         <v>44519</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         <v>44527</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
         <v>44540</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         <v>44549</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11563,7 +11563,7 @@
         <v>44559</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11620,7 +11620,7 @@
         <v>44585</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11677,7 +11677,7 @@
         <v>44601</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11734,7 +11734,7 @@
         <v>44609</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11791,7 +11791,7 @@
         <v>44627</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11848,7 +11848,7 @@
         <v>44634</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11905,7 +11905,7 @@
         <v>44662</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11962,7 +11962,7 @@
         <v>44669</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12024,7 +12024,7 @@
         <v>44671</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12081,7 +12081,7 @@
         <v>44671</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12138,7 +12138,7 @@
         <v>44671</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>44687</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12257,7 +12257,7 @@
         <v>44687</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12319,7 +12319,7 @@
         <v>44713</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12376,7 +12376,7 @@
         <v>44732</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>44747</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>44749</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>44778</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12609,7 +12609,7 @@
         <v>44811</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>44841</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>44841</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>44841</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>44865</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>44867</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>44868</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>44868</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>44875</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>44883</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>44883</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13246,7 +13246,7 @@
         <v>44887</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13303,7 +13303,7 @@
         <v>44888</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13360,7 +13360,7 @@
         <v>44895</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13417,7 +13417,7 @@
         <v>44897</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         <v>44916</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13531,7 +13531,7 @@
         <v>44918</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13588,7 +13588,7 @@
         <v>44932</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13645,7 +13645,7 @@
         <v>44958</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13702,7 +13702,7 @@
         <v>44971</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13759,7 +13759,7 @@
         <v>44977</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>44993</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>44993</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>44995</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>45022</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         <v>45027</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14101,7 +14101,7 @@
         <v>45027</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14158,7 +14158,7 @@
         <v>45027</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14215,7 +14215,7 @@
         <v>45033</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14272,7 +14272,7 @@
         <v>45048</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14329,7 +14329,7 @@
         <v>45048</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         <v>45048</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14443,7 +14443,7 @@
         <v>45050</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14500,7 +14500,7 @@
         <v>45055</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14557,7 +14557,7 @@
         <v>45055</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14614,7 +14614,7 @@
         <v>45056</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14671,7 +14671,7 @@
         <v>45070</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         <v>45070</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14785,7 +14785,7 @@
         <v>45077</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>45077</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>45078</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>45085</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>45089</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15070,7 +15070,7 @@
         <v>45097</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15127,7 +15127,7 @@
         <v>45099</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>45099</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15241,7 +15241,7 @@
         <v>45113</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15298,7 +15298,7 @@
         <v>45113</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>45148</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>45148</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>45161</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>45166</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>

--- a/Översikt GAGNEF.xlsx
+++ b/Översikt GAGNEF.xlsx
@@ -572,7 +572,7 @@
         <v>44397</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44067</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44896</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>45055</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>43696</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>43700</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44067</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>44958</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>45056</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>44929</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>43594</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>43628</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1645,7 +1645,7 @@
         <v>43804</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         <v>44270</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>44511</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         <v>45061</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>45146</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>43396</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>43397</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>43403</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43404</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2318,7 +2318,7 @@
         <v>43405</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>43406</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>43410</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>43413</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>43413</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>43416</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>43417</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43420</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>43420</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43430</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>43430</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43430</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43431</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43437</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43439</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43447</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         <v>43462</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         <v>43472</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         <v>43474</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3478,7 +3478,7 @@
         <v>43476</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         <v>43483</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         <v>43494</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3649,7 +3649,7 @@
         <v>43504</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>43514</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>43521</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>43528</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>43528</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         <v>43530</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
         <v>43539</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         <v>43546</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43552</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>43559</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>43564</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>43578</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>43591</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         <v>43594</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>43598</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>43601</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>43601</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>43604</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>43605</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
         <v>43605</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4789,7 +4789,7 @@
         <v>43607</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>43612</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>43619</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>43621</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>43633</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>43635</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>43636</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         <v>43636</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>43640</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         <v>43640</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         <v>43641</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         <v>43642</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>43642</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>43644</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>43644</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         <v>43648</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         <v>43650</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
         <v>43650</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         <v>43655</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         <v>43656</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5954,7 +5954,7 @@
         <v>43672</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6011,7 +6011,7 @@
         <v>43672</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6068,7 +6068,7 @@
         <v>43675</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>43684</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>43685</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         <v>43693</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6301,7 +6301,7 @@
         <v>43700</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6358,7 +6358,7 @@
         <v>43705</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6415,7 +6415,7 @@
         <v>43712</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         <v>43721</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         <v>43741</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6591,7 +6591,7 @@
         <v>43742</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6648,7 +6648,7 @@
         <v>43745</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6705,7 +6705,7 @@
         <v>43746</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6762,7 +6762,7 @@
         <v>43756</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>43762</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
         <v>43763</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6933,7 +6933,7 @@
         <v>43768</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6990,7 +6990,7 @@
         <v>43770</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7047,7 +7047,7 @@
         <v>43781</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7104,7 +7104,7 @@
         <v>43788</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>43802</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>43809</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>43811</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>43816</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>43818</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43833</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>43845</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>43845</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>43850</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>43861</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         <v>43866</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7798,7 +7798,7 @@
         <v>43920</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7855,7 +7855,7 @@
         <v>43921</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         <v>43929</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         <v>43930</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>43955</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>43968</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>43980</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         <v>43989</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8259,7 +8259,7 @@
         <v>44000</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8321,7 +8321,7 @@
         <v>44013</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8383,7 +8383,7 @@
         <v>44014</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8445,7 +8445,7 @@
         <v>44014</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>44015</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44042</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>44053</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>44076</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>44077</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8802,7 +8802,7 @@
         <v>44078</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8864,7 +8864,7 @@
         <v>44081</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8921,7 +8921,7 @@
         <v>44081</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8983,7 +8983,7 @@
         <v>44085</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         <v>44089</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>44103</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>44110</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>44111</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         <v>44113</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>44131</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9382,7 +9382,7 @@
         <v>44144</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9439,7 +9439,7 @@
         <v>44145</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44154</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>44162</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9610,7 +9610,7 @@
         <v>44165</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>44172</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>44172</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>44183</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>44186</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>44192</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>44215</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>44247</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>44253</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>44264</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>44264</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>44266</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>44320</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>44321</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>44326</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>44341</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
         <v>44376</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>44378</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10651,7 +10651,7 @@
         <v>44379</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10708,7 +10708,7 @@
         <v>44384</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10765,7 +10765,7 @@
         <v>44396</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10822,7 +10822,7 @@
         <v>44396</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10879,7 +10879,7 @@
         <v>44396</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10936,7 +10936,7 @@
         <v>44445</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10993,7 +10993,7 @@
         <v>44452</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11050,7 +11050,7 @@
         <v>44474</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         <v>44476</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11164,7 +11164,7 @@
         <v>44494</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11221,7 +11221,7 @@
         <v>44509</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11278,7 +11278,7 @@
         <v>44511</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11335,7 +11335,7 @@
         <v>44519</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         <v>44527</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
         <v>44540</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         <v>44549</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11563,7 +11563,7 @@
         <v>44559</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11620,7 +11620,7 @@
         <v>44585</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11677,7 +11677,7 @@
         <v>44601</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11734,7 +11734,7 @@
         <v>44609</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11791,7 +11791,7 @@
         <v>44627</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11848,7 +11848,7 @@
         <v>44634</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11905,7 +11905,7 @@
         <v>44662</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11962,7 +11962,7 @@
         <v>44669</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12024,7 +12024,7 @@
         <v>44671</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12081,7 +12081,7 @@
         <v>44671</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12138,7 +12138,7 @@
         <v>44671</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>44687</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12257,7 +12257,7 @@
         <v>44687</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12319,7 +12319,7 @@
         <v>44713</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12376,7 +12376,7 @@
         <v>44732</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>44747</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>44749</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>44778</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12609,7 +12609,7 @@
         <v>44811</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>44841</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>44841</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>44841</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>44865</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>44867</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>44868</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>44868</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>44875</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>44883</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>44883</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13246,7 +13246,7 @@
         <v>44887</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13303,7 +13303,7 @@
         <v>44888</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13360,7 +13360,7 @@
         <v>44895</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13417,7 +13417,7 @@
         <v>44897</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         <v>44916</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13531,7 +13531,7 @@
         <v>44918</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13588,7 +13588,7 @@
         <v>44932</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13645,7 +13645,7 @@
         <v>44958</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13702,7 +13702,7 @@
         <v>44971</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13759,7 +13759,7 @@
         <v>44977</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>44993</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>44993</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>44995</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>45022</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         <v>45027</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14101,7 +14101,7 @@
         <v>45027</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14158,7 +14158,7 @@
         <v>45027</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14215,7 +14215,7 @@
         <v>45033</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14272,7 +14272,7 @@
         <v>45048</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14329,7 +14329,7 @@
         <v>45048</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         <v>45048</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14443,7 +14443,7 @@
         <v>45050</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14500,7 +14500,7 @@
         <v>45055</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14557,7 +14557,7 @@
         <v>45055</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14614,7 +14614,7 @@
         <v>45056</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14671,7 +14671,7 @@
         <v>45070</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         <v>45070</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14785,7 +14785,7 @@
         <v>45077</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>45077</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>45078</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>45085</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>45089</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15070,7 +15070,7 @@
         <v>45097</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15127,7 +15127,7 @@
         <v>45099</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>45099</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15241,7 +15241,7 @@
         <v>45113</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15298,7 +15298,7 @@
         <v>45113</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>45148</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>45148</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>45161</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>45166</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>

--- a/Översikt GAGNEF.xlsx
+++ b/Översikt GAGNEF.xlsx
@@ -572,7 +572,7 @@
         <v>44397</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44067</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44896</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>45055</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>43696</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>43700</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44067</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>44958</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>45056</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>44929</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>43594</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>43628</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1645,7 +1645,7 @@
         <v>43804</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         <v>44270</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>44511</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         <v>45061</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>45146</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>43396</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>43397</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>43403</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43404</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2318,7 +2318,7 @@
         <v>43405</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>43406</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>43410</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>43413</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>43413</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>43416</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>43417</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43420</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>43420</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43430</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>43430</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43430</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43431</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43437</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43439</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43447</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         <v>43462</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         <v>43472</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         <v>43474</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3478,7 +3478,7 @@
         <v>43476</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         <v>43483</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         <v>43494</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3649,7 +3649,7 @@
         <v>43504</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>43514</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>43521</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>43528</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>43528</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         <v>43530</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
         <v>43539</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         <v>43546</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43552</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>43559</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>43564</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>43578</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>43591</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         <v>43594</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>43598</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>43601</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>43601</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>43604</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>43605</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
         <v>43605</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4789,7 +4789,7 @@
         <v>43607</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>43612</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>43619</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>43621</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>43633</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>43635</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>43636</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         <v>43636</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>43640</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         <v>43640</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         <v>43641</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         <v>43642</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>43642</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>43644</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>43644</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         <v>43648</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         <v>43650</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
         <v>43650</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         <v>43655</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         <v>43656</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5954,7 +5954,7 @@
         <v>43672</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6011,7 +6011,7 @@
         <v>43672</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6068,7 +6068,7 @@
         <v>43675</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>43684</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>43685</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         <v>43693</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6301,7 +6301,7 @@
         <v>43700</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6358,7 +6358,7 @@
         <v>43705</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6415,7 +6415,7 @@
         <v>43712</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         <v>43721</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         <v>43741</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6591,7 +6591,7 @@
         <v>43742</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6648,7 +6648,7 @@
         <v>43745</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6705,7 +6705,7 @@
         <v>43746</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6762,7 +6762,7 @@
         <v>43756</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>43762</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
         <v>43763</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6933,7 +6933,7 @@
         <v>43768</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6990,7 +6990,7 @@
         <v>43770</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7047,7 +7047,7 @@
         <v>43781</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7104,7 +7104,7 @@
         <v>43788</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>43802</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>43809</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>43811</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>43816</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>43818</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43833</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>43845</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>43845</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>43850</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>43861</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         <v>43866</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7798,7 +7798,7 @@
         <v>43920</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7855,7 +7855,7 @@
         <v>43921</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         <v>43929</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         <v>43930</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>43955</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>43968</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>43980</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         <v>43989</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8259,7 +8259,7 @@
         <v>44000</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8321,7 +8321,7 @@
         <v>44013</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8383,7 +8383,7 @@
         <v>44014</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8445,7 +8445,7 @@
         <v>44014</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>44015</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44042</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>44053</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>44076</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>44077</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8802,7 +8802,7 @@
         <v>44078</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8864,7 +8864,7 @@
         <v>44081</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8921,7 +8921,7 @@
         <v>44081</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8983,7 +8983,7 @@
         <v>44085</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         <v>44089</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>44103</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>44110</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>44111</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         <v>44113</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>44131</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9382,7 +9382,7 @@
         <v>44144</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9439,7 +9439,7 @@
         <v>44145</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44154</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>44162</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9610,7 +9610,7 @@
         <v>44165</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>44172</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>44172</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>44183</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>44186</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>44192</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>44215</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>44247</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>44253</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>44264</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>44264</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>44266</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>44320</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>44321</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>44326</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>44341</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
         <v>44376</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>44378</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10651,7 +10651,7 @@
         <v>44379</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10708,7 +10708,7 @@
         <v>44384</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10765,7 +10765,7 @@
         <v>44396</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10822,7 +10822,7 @@
         <v>44396</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10879,7 +10879,7 @@
         <v>44396</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10936,7 +10936,7 @@
         <v>44445</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10993,7 +10993,7 @@
         <v>44452</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11050,7 +11050,7 @@
         <v>44474</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         <v>44476</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11164,7 +11164,7 @@
         <v>44494</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11221,7 +11221,7 @@
         <v>44509</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11278,7 +11278,7 @@
         <v>44511</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11335,7 +11335,7 @@
         <v>44519</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         <v>44527</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
         <v>44540</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         <v>44549</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11563,7 +11563,7 @@
         <v>44559</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11620,7 +11620,7 @@
         <v>44585</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11677,7 +11677,7 @@
         <v>44601</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11734,7 +11734,7 @@
         <v>44609</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11791,7 +11791,7 @@
         <v>44627</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11848,7 +11848,7 @@
         <v>44634</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11905,7 +11905,7 @@
         <v>44662</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11962,7 +11962,7 @@
         <v>44669</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12024,7 +12024,7 @@
         <v>44671</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12081,7 +12081,7 @@
         <v>44671</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12138,7 +12138,7 @@
         <v>44671</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>44687</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12257,7 +12257,7 @@
         <v>44687</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12319,7 +12319,7 @@
         <v>44713</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12376,7 +12376,7 @@
         <v>44732</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>44747</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>44749</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>44778</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12609,7 +12609,7 @@
         <v>44811</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>44841</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>44841</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>44841</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>44865</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>44867</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>44868</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>44868</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>44875</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>44883</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>44883</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13246,7 +13246,7 @@
         <v>44887</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13303,7 +13303,7 @@
         <v>44888</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13360,7 +13360,7 @@
         <v>44895</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13417,7 +13417,7 @@
         <v>44897</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         <v>44916</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13531,7 +13531,7 @@
         <v>44918</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13588,7 +13588,7 @@
         <v>44932</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13645,7 +13645,7 @@
         <v>44958</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13702,7 +13702,7 @@
         <v>44971</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13759,7 +13759,7 @@
         <v>44977</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>44993</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>44993</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>44995</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>45022</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         <v>45027</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14101,7 +14101,7 @@
         <v>45027</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14158,7 +14158,7 @@
         <v>45027</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14215,7 +14215,7 @@
         <v>45033</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14272,7 +14272,7 @@
         <v>45048</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14329,7 +14329,7 @@
         <v>45048</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         <v>45048</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14443,7 +14443,7 @@
         <v>45050</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14500,7 +14500,7 @@
         <v>45055</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14557,7 +14557,7 @@
         <v>45055</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14614,7 +14614,7 @@
         <v>45056</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14671,7 +14671,7 @@
         <v>45070</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         <v>45070</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14785,7 +14785,7 @@
         <v>45077</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>45077</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>45078</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>45085</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>45089</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15070,7 +15070,7 @@
         <v>45097</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15127,7 +15127,7 @@
         <v>45099</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>45099</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15241,7 +15241,7 @@
         <v>45113</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15298,7 +15298,7 @@
         <v>45113</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>45148</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>45148</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>45161</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>45166</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>

--- a/Översikt GAGNEF.xlsx
+++ b/Översikt GAGNEF.xlsx
@@ -572,7 +572,7 @@
         <v>44397</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44067</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44896</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>45055</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>43696</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>43700</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44067</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>44958</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>45056</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>44929</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>43594</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>43628</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1645,7 +1645,7 @@
         <v>43804</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         <v>44270</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>44511</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         <v>45061</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>45146</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>43396</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>43397</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>43403</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43404</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2318,7 +2318,7 @@
         <v>43405</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>43406</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>43410</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>43413</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>43413</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>43416</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>43417</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43420</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>43420</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43430</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>43430</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43430</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43431</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43437</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43439</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43447</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         <v>43462</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         <v>43472</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         <v>43474</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3478,7 +3478,7 @@
         <v>43476</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         <v>43483</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         <v>43494</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3649,7 +3649,7 @@
         <v>43504</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>43514</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>43521</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>43528</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>43528</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         <v>43530</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
         <v>43539</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         <v>43546</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43552</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>43559</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>43564</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>43578</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>43591</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         <v>43594</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>43598</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>43601</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>43601</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>43604</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>43605</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
         <v>43605</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4789,7 +4789,7 @@
         <v>43607</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>43612</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>43619</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>43621</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>43633</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>43635</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>43636</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         <v>43636</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>43640</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         <v>43640</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         <v>43641</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         <v>43642</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>43642</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>43644</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>43644</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         <v>43648</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         <v>43650</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
         <v>43650</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         <v>43655</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         <v>43656</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5954,7 +5954,7 @@
         <v>43672</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6011,7 +6011,7 @@
         <v>43672</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6068,7 +6068,7 @@
         <v>43675</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>43684</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>43685</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         <v>43693</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6301,7 +6301,7 @@
         <v>43700</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6358,7 +6358,7 @@
         <v>43705</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6415,7 +6415,7 @@
         <v>43712</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         <v>43721</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         <v>43741</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6591,7 +6591,7 @@
         <v>43742</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6648,7 +6648,7 @@
         <v>43745</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6705,7 +6705,7 @@
         <v>43746</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6762,7 +6762,7 @@
         <v>43756</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>43762</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
         <v>43763</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6933,7 +6933,7 @@
         <v>43768</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6990,7 +6990,7 @@
         <v>43770</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7047,7 +7047,7 @@
         <v>43781</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7104,7 +7104,7 @@
         <v>43788</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>43802</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>43809</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>43811</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>43816</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>43818</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43833</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>43845</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>43845</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>43850</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>43861</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         <v>43866</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7798,7 +7798,7 @@
         <v>43920</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7855,7 +7855,7 @@
         <v>43921</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         <v>43929</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         <v>43930</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>43955</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>43968</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>43980</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         <v>43989</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8259,7 +8259,7 @@
         <v>44000</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8321,7 +8321,7 @@
         <v>44013</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8383,7 +8383,7 @@
         <v>44014</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8445,7 +8445,7 @@
         <v>44014</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>44015</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44042</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>44053</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>44076</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>44077</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8802,7 +8802,7 @@
         <v>44078</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8864,7 +8864,7 @@
         <v>44081</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8921,7 +8921,7 @@
         <v>44081</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8983,7 +8983,7 @@
         <v>44085</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         <v>44089</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>44103</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>44110</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>44111</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         <v>44113</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>44131</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9382,7 +9382,7 @@
         <v>44144</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9439,7 +9439,7 @@
         <v>44145</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44154</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>44162</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9610,7 +9610,7 @@
         <v>44165</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>44172</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>44172</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>44183</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>44186</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>44192</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>44215</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>44247</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>44253</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>44264</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>44264</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>44266</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>44320</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>44321</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>44326</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>44341</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
         <v>44376</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>44378</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10651,7 +10651,7 @@
         <v>44379</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10708,7 +10708,7 @@
         <v>44384</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10765,7 +10765,7 @@
         <v>44396</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10822,7 +10822,7 @@
         <v>44396</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10879,7 +10879,7 @@
         <v>44396</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10936,7 +10936,7 @@
         <v>44445</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10993,7 +10993,7 @@
         <v>44452</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11050,7 +11050,7 @@
         <v>44474</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         <v>44476</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11164,7 +11164,7 @@
         <v>44494</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11221,7 +11221,7 @@
         <v>44509</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11278,7 +11278,7 @@
         <v>44511</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11335,7 +11335,7 @@
         <v>44519</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         <v>44527</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
         <v>44540</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         <v>44549</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11563,7 +11563,7 @@
         <v>44559</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11620,7 +11620,7 @@
         <v>44585</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11677,7 +11677,7 @@
         <v>44601</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11734,7 +11734,7 @@
         <v>44609</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11791,7 +11791,7 @@
         <v>44627</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11848,7 +11848,7 @@
         <v>44634</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11905,7 +11905,7 @@
         <v>44662</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11962,7 +11962,7 @@
         <v>44669</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12024,7 +12024,7 @@
         <v>44671</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12081,7 +12081,7 @@
         <v>44671</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12138,7 +12138,7 @@
         <v>44671</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>44687</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12257,7 +12257,7 @@
         <v>44687</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12319,7 +12319,7 @@
         <v>44713</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12376,7 +12376,7 @@
         <v>44732</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>44747</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>44749</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>44778</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12609,7 +12609,7 @@
         <v>44811</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>44841</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>44841</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>44841</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>44865</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>44867</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>44868</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>44868</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>44875</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>44883</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>44883</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13246,7 +13246,7 @@
         <v>44887</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13303,7 +13303,7 @@
         <v>44888</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13360,7 +13360,7 @@
         <v>44895</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13417,7 +13417,7 @@
         <v>44897</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         <v>44916</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13531,7 +13531,7 @@
         <v>44918</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13588,7 +13588,7 @@
         <v>44932</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13645,7 +13645,7 @@
         <v>44958</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13702,7 +13702,7 @@
         <v>44971</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13759,7 +13759,7 @@
         <v>44977</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>44993</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>44993</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>44995</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>45022</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         <v>45027</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14101,7 +14101,7 @@
         <v>45027</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14158,7 +14158,7 @@
         <v>45027</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14215,7 +14215,7 @@
         <v>45033</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14272,7 +14272,7 @@
         <v>45048</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14329,7 +14329,7 @@
         <v>45048</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         <v>45048</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14443,7 +14443,7 @@
         <v>45050</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14500,7 +14500,7 @@
         <v>45055</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14557,7 +14557,7 @@
         <v>45055</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14614,7 +14614,7 @@
         <v>45056</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14671,7 +14671,7 @@
         <v>45070</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         <v>45070</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14785,7 +14785,7 @@
         <v>45077</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>45077</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>45078</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>45085</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>45089</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15070,7 +15070,7 @@
         <v>45097</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15127,7 +15127,7 @@
         <v>45099</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>45099</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15241,7 +15241,7 @@
         <v>45113</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15298,7 +15298,7 @@
         <v>45113</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>45148</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>45148</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>45161</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>45166</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>

--- a/Översikt GAGNEF.xlsx
+++ b/Översikt GAGNEF.xlsx
@@ -572,7 +572,7 @@
         <v>44397</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44067</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44896</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>45055</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>43696</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>43700</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44067</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>44958</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>45056</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>44929</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>43594</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>43628</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1645,7 +1645,7 @@
         <v>43804</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         <v>44270</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>44511</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         <v>45061</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>45146</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>43396</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>43397</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>43403</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43404</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2318,7 +2318,7 @@
         <v>43405</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>43406</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>43410</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>43413</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>43413</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>43416</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>43417</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43420</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>43420</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43430</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>43430</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43430</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43431</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43437</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43439</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43447</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         <v>43462</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         <v>43472</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         <v>43474</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3478,7 +3478,7 @@
         <v>43476</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         <v>43483</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         <v>43494</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3649,7 +3649,7 @@
         <v>43504</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>43514</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>43521</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>43528</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>43528</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         <v>43530</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
         <v>43539</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         <v>43546</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43552</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>43559</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>43564</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>43578</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>43591</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         <v>43594</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>43598</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>43601</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>43601</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>43604</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>43605</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
         <v>43605</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4789,7 +4789,7 @@
         <v>43607</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>43612</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>43619</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>43621</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>43633</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>43635</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>43636</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         <v>43636</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>43640</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         <v>43640</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         <v>43641</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         <v>43642</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>43642</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>43644</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>43644</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         <v>43648</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         <v>43650</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
         <v>43650</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         <v>43655</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         <v>43656</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5954,7 +5954,7 @@
         <v>43672</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6011,7 +6011,7 @@
         <v>43672</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6068,7 +6068,7 @@
         <v>43675</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>43684</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>43685</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         <v>43693</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6301,7 +6301,7 @@
         <v>43700</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6358,7 +6358,7 @@
         <v>43705</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6415,7 +6415,7 @@
         <v>43712</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         <v>43721</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         <v>43741</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6591,7 +6591,7 @@
         <v>43742</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6648,7 +6648,7 @@
         <v>43745</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6705,7 +6705,7 @@
         <v>43746</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6762,7 +6762,7 @@
         <v>43756</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>43762</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
         <v>43763</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6933,7 +6933,7 @@
         <v>43768</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6990,7 +6990,7 @@
         <v>43770</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7047,7 +7047,7 @@
         <v>43781</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7104,7 +7104,7 @@
         <v>43788</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>43802</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>43809</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>43811</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>43816</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>43818</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43833</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>43845</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>43845</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>43850</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>43861</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         <v>43866</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7798,7 +7798,7 @@
         <v>43920</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7855,7 +7855,7 @@
         <v>43921</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         <v>43929</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         <v>43930</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>43955</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>43968</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>43980</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         <v>43989</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8259,7 +8259,7 @@
         <v>44000</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8321,7 +8321,7 @@
         <v>44013</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8383,7 +8383,7 @@
         <v>44014</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8445,7 +8445,7 @@
         <v>44014</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>44015</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44042</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>44053</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>44076</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>44077</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8802,7 +8802,7 @@
         <v>44078</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8864,7 +8864,7 @@
         <v>44081</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8921,7 +8921,7 @@
         <v>44081</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8983,7 +8983,7 @@
         <v>44085</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         <v>44089</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>44103</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>44110</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>44111</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         <v>44113</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>44131</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9382,7 +9382,7 @@
         <v>44144</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9439,7 +9439,7 @@
         <v>44145</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44154</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>44162</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9610,7 +9610,7 @@
         <v>44165</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>44172</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>44172</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>44183</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>44186</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>44192</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>44215</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>44247</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>44253</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>44264</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>44264</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>44266</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>44320</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>44321</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>44326</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>44341</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
         <v>44376</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>44378</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10651,7 +10651,7 @@
         <v>44379</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10708,7 +10708,7 @@
         <v>44384</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10765,7 +10765,7 @@
         <v>44396</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10822,7 +10822,7 @@
         <v>44396</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10879,7 +10879,7 @@
         <v>44396</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10936,7 +10936,7 @@
         <v>44445</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10993,7 +10993,7 @@
         <v>44452</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11050,7 +11050,7 @@
         <v>44474</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         <v>44476</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11164,7 +11164,7 @@
         <v>44494</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11221,7 +11221,7 @@
         <v>44509</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11278,7 +11278,7 @@
         <v>44511</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11335,7 +11335,7 @@
         <v>44519</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         <v>44527</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
         <v>44540</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         <v>44549</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11563,7 +11563,7 @@
         <v>44559</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11620,7 +11620,7 @@
         <v>44585</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11677,7 +11677,7 @@
         <v>44601</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11734,7 +11734,7 @@
         <v>44609</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11791,7 +11791,7 @@
         <v>44627</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11848,7 +11848,7 @@
         <v>44634</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11905,7 +11905,7 @@
         <v>44662</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11962,7 +11962,7 @@
         <v>44669</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12024,7 +12024,7 @@
         <v>44671</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12081,7 +12081,7 @@
         <v>44671</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12138,7 +12138,7 @@
         <v>44671</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>44687</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12257,7 +12257,7 @@
         <v>44687</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12319,7 +12319,7 @@
         <v>44713</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12376,7 +12376,7 @@
         <v>44732</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>44747</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>44749</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>44778</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12609,7 +12609,7 @@
         <v>44811</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>44841</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>44841</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>44841</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>44865</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>44867</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>44868</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>44868</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>44875</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>44883</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>44883</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13246,7 +13246,7 @@
         <v>44887</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13303,7 +13303,7 @@
         <v>44888</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13360,7 +13360,7 @@
         <v>44895</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13417,7 +13417,7 @@
         <v>44897</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         <v>44916</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13531,7 +13531,7 @@
         <v>44918</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13588,7 +13588,7 @@
         <v>44932</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13645,7 +13645,7 @@
         <v>44958</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13702,7 +13702,7 @@
         <v>44971</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13759,7 +13759,7 @@
         <v>44977</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>44993</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>44993</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>44995</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>45022</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         <v>45027</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14101,7 +14101,7 @@
         <v>45027</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14158,7 +14158,7 @@
         <v>45027</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14215,7 +14215,7 @@
         <v>45033</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14272,7 +14272,7 @@
         <v>45048</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14329,7 +14329,7 @@
         <v>45048</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         <v>45048</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14443,7 +14443,7 @@
         <v>45050</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14500,7 +14500,7 @@
         <v>45055</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14557,7 +14557,7 @@
         <v>45055</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14614,7 +14614,7 @@
         <v>45056</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14671,7 +14671,7 @@
         <v>45070</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         <v>45070</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14785,7 +14785,7 @@
         <v>45077</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>45077</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>45078</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>45085</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>45089</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15070,7 +15070,7 @@
         <v>45097</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15127,7 +15127,7 @@
         <v>45099</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>45099</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15241,7 +15241,7 @@
         <v>45113</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15298,7 +15298,7 @@
         <v>45113</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>45148</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>45148</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>45161</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>45166</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>

--- a/Översikt GAGNEF.xlsx
+++ b/Översikt GAGNEF.xlsx
@@ -572,7 +572,7 @@
         <v>44397</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44067</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44896</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>45055</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>43696</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>43700</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44067</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>44958</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>45056</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>44929</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>43594</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>43628</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1645,7 +1645,7 @@
         <v>43804</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         <v>44270</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>44511</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         <v>45061</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>45146</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>43396</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>43397</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>43403</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43404</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2318,7 +2318,7 @@
         <v>43405</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>43406</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>43410</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>43413</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>43413</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>43416</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>43417</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43420</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>43420</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43430</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>43430</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43430</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43431</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43437</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43439</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43447</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         <v>43462</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         <v>43472</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         <v>43474</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3478,7 +3478,7 @@
         <v>43476</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         <v>43483</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         <v>43494</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3649,7 +3649,7 @@
         <v>43504</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>43514</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>43521</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>43528</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>43528</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         <v>43530</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
         <v>43539</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         <v>43546</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43552</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>43559</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>43564</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>43578</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>43591</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         <v>43594</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>43598</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>43601</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>43601</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>43604</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>43605</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
         <v>43605</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4789,7 +4789,7 @@
         <v>43607</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>43612</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>43619</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>43621</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>43633</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>43635</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>43636</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         <v>43636</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>43640</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         <v>43640</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         <v>43641</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         <v>43642</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>43642</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>43644</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>43644</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         <v>43648</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         <v>43650</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
         <v>43650</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         <v>43655</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         <v>43656</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5954,7 +5954,7 @@
         <v>43672</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6011,7 +6011,7 @@
         <v>43672</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6068,7 +6068,7 @@
         <v>43675</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>43684</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>43685</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         <v>43693</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6301,7 +6301,7 @@
         <v>43700</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6358,7 +6358,7 @@
         <v>43705</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6415,7 +6415,7 @@
         <v>43712</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         <v>43721</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         <v>43741</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6591,7 +6591,7 @@
         <v>43742</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6648,7 +6648,7 @@
         <v>43745</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6705,7 +6705,7 @@
         <v>43746</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6762,7 +6762,7 @@
         <v>43756</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>43762</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
         <v>43763</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6933,7 +6933,7 @@
         <v>43768</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6990,7 +6990,7 @@
         <v>43770</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7047,7 +7047,7 @@
         <v>43781</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7104,7 +7104,7 @@
         <v>43788</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>43802</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>43809</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>43811</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>43816</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>43818</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43833</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>43845</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>43845</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>43850</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>43861</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         <v>43866</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7798,7 +7798,7 @@
         <v>43920</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7855,7 +7855,7 @@
         <v>43921</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         <v>43929</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         <v>43930</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>43955</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>43968</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>43980</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         <v>43989</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8259,7 +8259,7 @@
         <v>44000</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8321,7 +8321,7 @@
         <v>44013</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8383,7 +8383,7 @@
         <v>44014</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8445,7 +8445,7 @@
         <v>44014</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>44015</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44042</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>44053</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>44076</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>44077</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8802,7 +8802,7 @@
         <v>44078</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8864,7 +8864,7 @@
         <v>44081</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8921,7 +8921,7 @@
         <v>44081</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8983,7 +8983,7 @@
         <v>44085</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         <v>44089</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>44103</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>44110</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>44111</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         <v>44113</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>44131</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9382,7 +9382,7 @@
         <v>44144</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9439,7 +9439,7 @@
         <v>44145</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44154</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>44162</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9610,7 +9610,7 @@
         <v>44165</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>44172</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>44172</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>44183</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>44186</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>44192</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>44215</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>44247</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>44253</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>44264</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>44264</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>44266</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>44320</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>44321</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>44326</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>44341</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
         <v>44376</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>44378</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10651,7 +10651,7 @@
         <v>44379</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10708,7 +10708,7 @@
         <v>44384</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10765,7 +10765,7 @@
         <v>44396</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10822,7 +10822,7 @@
         <v>44396</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10879,7 +10879,7 @@
         <v>44396</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10936,7 +10936,7 @@
         <v>44445</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10993,7 +10993,7 @@
         <v>44452</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11050,7 +11050,7 @@
         <v>44474</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         <v>44476</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11164,7 +11164,7 @@
         <v>44494</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11221,7 +11221,7 @@
         <v>44509</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11278,7 +11278,7 @@
         <v>44511</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11335,7 +11335,7 @@
         <v>44519</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         <v>44527</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
         <v>44540</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         <v>44549</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11563,7 +11563,7 @@
         <v>44559</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11620,7 +11620,7 @@
         <v>44585</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11677,7 +11677,7 @@
         <v>44601</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11734,7 +11734,7 @@
         <v>44609</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11791,7 +11791,7 @@
         <v>44627</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11848,7 +11848,7 @@
         <v>44634</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11905,7 +11905,7 @@
         <v>44662</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11962,7 +11962,7 @@
         <v>44669</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12024,7 +12024,7 @@
         <v>44671</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12081,7 +12081,7 @@
         <v>44671</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12138,7 +12138,7 @@
         <v>44671</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>44687</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12257,7 +12257,7 @@
         <v>44687</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12319,7 +12319,7 @@
         <v>44713</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12376,7 +12376,7 @@
         <v>44732</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>44747</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>44749</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>44778</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12609,7 +12609,7 @@
         <v>44811</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>44841</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>44841</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>44841</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>44865</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>44867</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>44868</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>44868</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>44875</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>44883</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>44883</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13246,7 +13246,7 @@
         <v>44887</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13303,7 +13303,7 @@
         <v>44888</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13360,7 +13360,7 @@
         <v>44895</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13417,7 +13417,7 @@
         <v>44897</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         <v>44916</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13531,7 +13531,7 @@
         <v>44918</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13588,7 +13588,7 @@
         <v>44932</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13645,7 +13645,7 @@
         <v>44958</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13702,7 +13702,7 @@
         <v>44971</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13759,7 +13759,7 @@
         <v>44977</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>44993</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>44993</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>44995</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>45022</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         <v>45027</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14101,7 +14101,7 @@
         <v>45027</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14158,7 +14158,7 @@
         <v>45027</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14215,7 +14215,7 @@
         <v>45033</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14272,7 +14272,7 @@
         <v>45048</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14329,7 +14329,7 @@
         <v>45048</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         <v>45048</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14443,7 +14443,7 @@
         <v>45050</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14500,7 +14500,7 @@
         <v>45055</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14557,7 +14557,7 @@
         <v>45055</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14614,7 +14614,7 @@
         <v>45056</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14671,7 +14671,7 @@
         <v>45070</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         <v>45070</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14785,7 +14785,7 @@
         <v>45077</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>45077</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>45078</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>45085</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>45089</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15070,7 +15070,7 @@
         <v>45097</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15127,7 +15127,7 @@
         <v>45099</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>45099</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15241,7 +15241,7 @@
         <v>45113</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15298,7 +15298,7 @@
         <v>45113</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>45148</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>45148</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>45161</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>45166</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>

--- a/Översikt GAGNEF.xlsx
+++ b/Översikt GAGNEF.xlsx
@@ -572,7 +572,7 @@
         <v>44397</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44067</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44896</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>45055</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>43696</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>43700</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44067</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>44958</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>45056</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>44929</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>43594</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>43628</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1645,7 +1645,7 @@
         <v>43804</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         <v>44270</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>44511</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         <v>45061</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>45146</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>43396</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>43397</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>43403</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43404</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2318,7 +2318,7 @@
         <v>43405</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>43406</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>43410</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>43413</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>43413</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>43416</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>43417</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43420</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>43420</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43430</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>43430</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43430</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43431</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43437</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43439</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43447</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         <v>43462</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         <v>43472</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         <v>43474</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3478,7 +3478,7 @@
         <v>43476</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         <v>43483</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         <v>43494</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3649,7 +3649,7 @@
         <v>43504</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>43514</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>43521</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>43528</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>43528</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         <v>43530</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
         <v>43539</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         <v>43546</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43552</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>43559</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>43564</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>43578</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>43591</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         <v>43594</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>43598</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>43601</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>43601</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>43604</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>43605</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
         <v>43605</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4789,7 +4789,7 @@
         <v>43607</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>43612</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>43619</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>43621</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>43633</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>43635</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>43636</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         <v>43636</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>43640</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         <v>43640</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         <v>43641</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         <v>43642</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>43642</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>43644</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>43644</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         <v>43648</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         <v>43650</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
         <v>43650</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         <v>43655</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         <v>43656</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5954,7 +5954,7 @@
         <v>43672</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6011,7 +6011,7 @@
         <v>43672</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6068,7 +6068,7 @@
         <v>43675</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>43684</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>43685</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         <v>43693</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6301,7 +6301,7 @@
         <v>43700</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6358,7 +6358,7 @@
         <v>43705</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6415,7 +6415,7 @@
         <v>43712</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         <v>43721</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         <v>43741</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6591,7 +6591,7 @@
         <v>43742</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6648,7 +6648,7 @@
         <v>43745</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6705,7 +6705,7 @@
         <v>43746</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6762,7 +6762,7 @@
         <v>43756</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>43762</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
         <v>43763</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6933,7 +6933,7 @@
         <v>43768</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6990,7 +6990,7 @@
         <v>43770</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7047,7 +7047,7 @@
         <v>43781</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7104,7 +7104,7 @@
         <v>43788</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>43802</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>43809</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>43811</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>43816</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>43818</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43833</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>43845</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>43845</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>43850</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>43861</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         <v>43866</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7798,7 +7798,7 @@
         <v>43920</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7855,7 +7855,7 @@
         <v>43921</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         <v>43929</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         <v>43930</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>43955</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>43968</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>43980</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         <v>43989</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8259,7 +8259,7 @@
         <v>44000</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8321,7 +8321,7 @@
         <v>44013</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8383,7 +8383,7 @@
         <v>44014</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8445,7 +8445,7 @@
         <v>44014</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>44015</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44042</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>44053</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>44076</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>44077</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8802,7 +8802,7 @@
         <v>44078</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8864,7 +8864,7 @@
         <v>44081</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8921,7 +8921,7 @@
         <v>44081</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8983,7 +8983,7 @@
         <v>44085</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         <v>44089</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>44103</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>44110</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>44111</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         <v>44113</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>44131</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9382,7 +9382,7 @@
         <v>44144</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9439,7 +9439,7 @@
         <v>44145</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44154</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>44162</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9610,7 +9610,7 @@
         <v>44165</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>44172</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>44172</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>44183</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>44186</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>44192</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>44215</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>44247</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>44253</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>44264</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>44264</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>44266</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>44320</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>44321</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>44326</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>44341</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
         <v>44376</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>44378</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10651,7 +10651,7 @@
         <v>44379</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10708,7 +10708,7 @@
         <v>44384</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10765,7 +10765,7 @@
         <v>44396</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10822,7 +10822,7 @@
         <v>44396</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10879,7 +10879,7 @@
         <v>44396</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10936,7 +10936,7 @@
         <v>44445</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10993,7 +10993,7 @@
         <v>44452</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11050,7 +11050,7 @@
         <v>44474</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         <v>44476</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11164,7 +11164,7 @@
         <v>44494</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11221,7 +11221,7 @@
         <v>44509</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11278,7 +11278,7 @@
         <v>44511</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11335,7 +11335,7 @@
         <v>44519</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         <v>44527</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
         <v>44540</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         <v>44549</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11563,7 +11563,7 @@
         <v>44559</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11620,7 +11620,7 @@
         <v>44585</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11677,7 +11677,7 @@
         <v>44601</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11734,7 +11734,7 @@
         <v>44609</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11791,7 +11791,7 @@
         <v>44627</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11848,7 +11848,7 @@
         <v>44634</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11905,7 +11905,7 @@
         <v>44662</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11962,7 +11962,7 @@
         <v>44669</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12024,7 +12024,7 @@
         <v>44671</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12081,7 +12081,7 @@
         <v>44671</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12138,7 +12138,7 @@
         <v>44671</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>44687</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12257,7 +12257,7 @@
         <v>44687</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12319,7 +12319,7 @@
         <v>44713</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12376,7 +12376,7 @@
         <v>44732</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>44747</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>44749</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>44778</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12609,7 +12609,7 @@
         <v>44811</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>44841</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>44841</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>44841</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>44865</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>44867</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>44868</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>44868</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>44875</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>44883</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>44883</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13246,7 +13246,7 @@
         <v>44887</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13303,7 +13303,7 @@
         <v>44888</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13360,7 +13360,7 @@
         <v>44895</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13417,7 +13417,7 @@
         <v>44897</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         <v>44916</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13531,7 +13531,7 @@
         <v>44918</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13588,7 +13588,7 @@
         <v>44932</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13645,7 +13645,7 @@
         <v>44958</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13702,7 +13702,7 @@
         <v>44971</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13759,7 +13759,7 @@
         <v>44977</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>44993</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>44993</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>44995</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>45022</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         <v>45027</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14101,7 +14101,7 @@
         <v>45027</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14158,7 +14158,7 @@
         <v>45027</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14215,7 +14215,7 @@
         <v>45033</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14272,7 +14272,7 @@
         <v>45048</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14329,7 +14329,7 @@
         <v>45048</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         <v>45048</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14443,7 +14443,7 @@
         <v>45050</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14500,7 +14500,7 @@
         <v>45055</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14557,7 +14557,7 @@
         <v>45055</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14614,7 +14614,7 @@
         <v>45056</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14671,7 +14671,7 @@
         <v>45070</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         <v>45070</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14785,7 +14785,7 @@
         <v>45077</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>45077</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>45078</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>45085</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>45089</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15070,7 +15070,7 @@
         <v>45097</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15127,7 +15127,7 @@
         <v>45099</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>45099</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15241,7 +15241,7 @@
         <v>45113</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15298,7 +15298,7 @@
         <v>45113</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>45148</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>45148</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>45161</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>45166</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>

--- a/Översikt GAGNEF.xlsx
+++ b/Översikt GAGNEF.xlsx
@@ -572,7 +572,7 @@
         <v>44397</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44067</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44896</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>45055</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>43696</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>43700</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44067</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>44958</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>45056</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>44929</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>43594</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>43628</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1645,7 +1645,7 @@
         <v>43804</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         <v>44270</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>44511</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         <v>45061</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>45146</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>43396</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>43397</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>43403</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43404</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2318,7 +2318,7 @@
         <v>43405</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>43406</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>43410</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>43413</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>43413</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>43416</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>43417</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43420</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>43420</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43430</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>43430</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43430</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43431</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43437</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43439</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43447</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         <v>43462</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         <v>43472</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         <v>43474</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3478,7 +3478,7 @@
         <v>43476</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         <v>43483</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         <v>43494</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3649,7 +3649,7 @@
         <v>43504</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>43514</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>43521</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>43528</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>43528</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         <v>43530</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
         <v>43539</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         <v>43546</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43552</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>43559</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>43564</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>43578</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>43591</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         <v>43594</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>43598</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>43601</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>43601</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>43604</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>43605</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
         <v>43605</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4789,7 +4789,7 @@
         <v>43607</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>43612</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>43619</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>43621</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>43633</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>43635</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>43636</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         <v>43636</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>43640</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         <v>43640</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         <v>43641</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         <v>43642</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>43642</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>43644</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>43644</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         <v>43648</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         <v>43650</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
         <v>43650</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         <v>43655</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         <v>43656</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5954,7 +5954,7 @@
         <v>43672</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6011,7 +6011,7 @@
         <v>43672</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6068,7 +6068,7 @@
         <v>43675</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>43684</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>43685</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         <v>43693</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6301,7 +6301,7 @@
         <v>43700</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6358,7 +6358,7 @@
         <v>43705</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6415,7 +6415,7 @@
         <v>43712</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         <v>43721</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         <v>43741</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6591,7 +6591,7 @@
         <v>43742</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6648,7 +6648,7 @@
         <v>43745</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6705,7 +6705,7 @@
         <v>43746</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6762,7 +6762,7 @@
         <v>43756</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>43762</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
         <v>43763</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6933,7 +6933,7 @@
         <v>43768</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6990,7 +6990,7 @@
         <v>43770</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7047,7 +7047,7 @@
         <v>43781</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7104,7 +7104,7 @@
         <v>43788</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>43802</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>43809</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>43811</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>43816</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>43818</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43833</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>43845</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>43845</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>43850</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>43861</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         <v>43866</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7798,7 +7798,7 @@
         <v>43920</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7855,7 +7855,7 @@
         <v>43921</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         <v>43929</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         <v>43930</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>43955</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>43968</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>43980</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         <v>43989</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8259,7 +8259,7 @@
         <v>44000</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8321,7 +8321,7 @@
         <v>44013</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8383,7 +8383,7 @@
         <v>44014</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8445,7 +8445,7 @@
         <v>44014</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>44015</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44042</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>44053</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>44076</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>44077</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8802,7 +8802,7 @@
         <v>44078</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8864,7 +8864,7 @@
         <v>44081</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8921,7 +8921,7 @@
         <v>44081</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8983,7 +8983,7 @@
         <v>44085</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         <v>44089</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>44103</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>44110</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>44111</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         <v>44113</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>44131</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9382,7 +9382,7 @@
         <v>44144</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9439,7 +9439,7 @@
         <v>44145</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44154</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>44162</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9610,7 +9610,7 @@
         <v>44165</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>44172</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>44172</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>44183</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>44186</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>44192</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>44215</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>44247</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>44253</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>44264</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>44264</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>44266</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>44320</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>44321</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>44326</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>44341</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
         <v>44376</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>44378</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10651,7 +10651,7 @@
         <v>44379</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10708,7 +10708,7 @@
         <v>44384</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10765,7 +10765,7 @@
         <v>44396</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10822,7 +10822,7 @@
         <v>44396</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10879,7 +10879,7 @@
         <v>44396</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10936,7 +10936,7 @@
         <v>44445</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10993,7 +10993,7 @@
         <v>44452</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11050,7 +11050,7 @@
         <v>44474</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         <v>44476</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11164,7 +11164,7 @@
         <v>44494</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11221,7 +11221,7 @@
         <v>44509</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11278,7 +11278,7 @@
         <v>44511</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11335,7 +11335,7 @@
         <v>44519</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         <v>44527</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
         <v>44540</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         <v>44549</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11563,7 +11563,7 @@
         <v>44559</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11620,7 +11620,7 @@
         <v>44585</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11677,7 +11677,7 @@
         <v>44601</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11734,7 +11734,7 @@
         <v>44609</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11791,7 +11791,7 @@
         <v>44627</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11848,7 +11848,7 @@
         <v>44634</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11905,7 +11905,7 @@
         <v>44662</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11962,7 +11962,7 @@
         <v>44669</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12024,7 +12024,7 @@
         <v>44671</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12081,7 +12081,7 @@
         <v>44671</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12138,7 +12138,7 @@
         <v>44671</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>44687</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12257,7 +12257,7 @@
         <v>44687</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12319,7 +12319,7 @@
         <v>44713</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12376,7 +12376,7 @@
         <v>44732</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>44747</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>44749</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>44778</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12609,7 +12609,7 @@
         <v>44811</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>44841</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>44841</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>44841</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>44865</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>44867</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>44868</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>44868</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>44875</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>44883</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>44883</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13246,7 +13246,7 @@
         <v>44887</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13303,7 +13303,7 @@
         <v>44888</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13360,7 +13360,7 @@
         <v>44895</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13417,7 +13417,7 @@
         <v>44897</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         <v>44916</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13531,7 +13531,7 @@
         <v>44918</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13588,7 +13588,7 @@
         <v>44932</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13645,7 +13645,7 @@
         <v>44958</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13702,7 +13702,7 @@
         <v>44971</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13759,7 +13759,7 @@
         <v>44977</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>44993</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>44993</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>44995</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>45022</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         <v>45027</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14101,7 +14101,7 @@
         <v>45027</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14158,7 +14158,7 @@
         <v>45027</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14215,7 +14215,7 @@
         <v>45033</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14272,7 +14272,7 @@
         <v>45048</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14329,7 +14329,7 @@
         <v>45048</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         <v>45048</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14443,7 +14443,7 @@
         <v>45050</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14500,7 +14500,7 @@
         <v>45055</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14557,7 +14557,7 @@
         <v>45055</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14614,7 +14614,7 @@
         <v>45056</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14671,7 +14671,7 @@
         <v>45070</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         <v>45070</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14785,7 +14785,7 @@
         <v>45077</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>45077</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>45078</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>45085</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>45089</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15070,7 +15070,7 @@
         <v>45097</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15127,7 +15127,7 @@
         <v>45099</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>45099</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15241,7 +15241,7 @@
         <v>45113</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15298,7 +15298,7 @@
         <v>45113</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>45148</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>45148</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>45161</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>45166</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>

--- a/Översikt GAGNEF.xlsx
+++ b/Översikt GAGNEF.xlsx
@@ -572,7 +572,7 @@
         <v>44397</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44067</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44896</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>45055</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>43696</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>43700</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44067</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>44958</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>45056</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>44929</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>43594</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>43628</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1645,7 +1645,7 @@
         <v>43804</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         <v>44270</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>44511</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         <v>45061</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>45146</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>43396</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>43397</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>43403</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43404</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2318,7 +2318,7 @@
         <v>43405</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>43406</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>43410</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>43413</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>43413</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>43416</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>43417</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43420</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>43420</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43430</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>43430</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43430</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43431</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43437</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43439</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43447</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         <v>43462</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         <v>43472</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         <v>43474</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3478,7 +3478,7 @@
         <v>43476</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         <v>43483</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         <v>43494</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3649,7 +3649,7 @@
         <v>43504</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>43514</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>43521</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>43528</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>43528</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         <v>43530</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
         <v>43539</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         <v>43546</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43552</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>43559</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>43564</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>43578</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>43591</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         <v>43594</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>43598</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>43601</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>43601</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>43604</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>43605</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
         <v>43605</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4789,7 +4789,7 @@
         <v>43607</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>43612</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>43619</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>43621</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>43633</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>43635</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>43636</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         <v>43636</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>43640</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         <v>43640</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         <v>43641</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         <v>43642</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>43642</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>43644</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>43644</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         <v>43648</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         <v>43650</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
         <v>43650</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         <v>43655</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         <v>43656</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5954,7 +5954,7 @@
         <v>43672</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6011,7 +6011,7 @@
         <v>43672</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6068,7 +6068,7 @@
         <v>43675</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>43684</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>43685</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         <v>43693</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6301,7 +6301,7 @@
         <v>43700</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6358,7 +6358,7 @@
         <v>43705</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6415,7 +6415,7 @@
         <v>43712</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         <v>43721</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         <v>43741</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6591,7 +6591,7 @@
         <v>43742</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6648,7 +6648,7 @@
         <v>43745</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6705,7 +6705,7 @@
         <v>43746</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6762,7 +6762,7 @@
         <v>43756</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>43762</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
         <v>43763</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6933,7 +6933,7 @@
         <v>43768</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6990,7 +6990,7 @@
         <v>43770</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7047,7 +7047,7 @@
         <v>43781</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7104,7 +7104,7 @@
         <v>43788</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>43802</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>43809</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>43811</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>43816</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>43818</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43833</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>43845</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>43845</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>43850</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>43861</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         <v>43866</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7798,7 +7798,7 @@
         <v>43920</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7855,7 +7855,7 @@
         <v>43921</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         <v>43929</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         <v>43930</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>43955</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>43968</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>43980</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         <v>43989</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8259,7 +8259,7 @@
         <v>44000</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8321,7 +8321,7 @@
         <v>44013</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8383,7 +8383,7 @@
         <v>44014</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8445,7 +8445,7 @@
         <v>44014</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>44015</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44042</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>44053</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>44076</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>44077</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8802,7 +8802,7 @@
         <v>44078</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8864,7 +8864,7 @@
         <v>44081</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8921,7 +8921,7 @@
         <v>44081</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8983,7 +8983,7 @@
         <v>44085</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         <v>44089</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>44103</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>44110</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>44111</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         <v>44113</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>44131</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9382,7 +9382,7 @@
         <v>44144</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9439,7 +9439,7 @@
         <v>44145</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44154</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>44162</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9610,7 +9610,7 @@
         <v>44165</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>44172</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>44172</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>44183</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>44186</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>44192</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>44215</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>44247</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>44253</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>44264</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>44264</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>44266</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>44320</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>44321</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>44326</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>44341</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
         <v>44376</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>44378</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10651,7 +10651,7 @@
         <v>44379</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10708,7 +10708,7 @@
         <v>44384</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10765,7 +10765,7 @@
         <v>44396</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10822,7 +10822,7 @@
         <v>44396</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10879,7 +10879,7 @@
         <v>44396</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10936,7 +10936,7 @@
         <v>44445</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10993,7 +10993,7 @@
         <v>44452</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11050,7 +11050,7 @@
         <v>44474</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         <v>44476</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11164,7 +11164,7 @@
         <v>44494</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11221,7 +11221,7 @@
         <v>44509</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11278,7 +11278,7 @@
         <v>44511</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11335,7 +11335,7 @@
         <v>44519</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         <v>44527</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
         <v>44540</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         <v>44549</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11563,7 +11563,7 @@
         <v>44559</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11620,7 +11620,7 @@
         <v>44585</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11677,7 +11677,7 @@
         <v>44601</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11734,7 +11734,7 @@
         <v>44609</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11791,7 +11791,7 @@
         <v>44627</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11848,7 +11848,7 @@
         <v>44634</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11905,7 +11905,7 @@
         <v>44662</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11962,7 +11962,7 @@
         <v>44669</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12024,7 +12024,7 @@
         <v>44671</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12081,7 +12081,7 @@
         <v>44671</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12138,7 +12138,7 @@
         <v>44671</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>44687</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12257,7 +12257,7 @@
         <v>44687</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12319,7 +12319,7 @@
         <v>44713</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12376,7 +12376,7 @@
         <v>44732</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>44747</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>44749</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>44778</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12609,7 +12609,7 @@
         <v>44811</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>44841</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>44841</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>44841</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>44865</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>44867</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>44868</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>44868</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>44875</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>44883</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>44883</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13246,7 +13246,7 @@
         <v>44887</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13303,7 +13303,7 @@
         <v>44888</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13360,7 +13360,7 @@
         <v>44895</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13417,7 +13417,7 @@
         <v>44897</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         <v>44916</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13531,7 +13531,7 @@
         <v>44918</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13588,7 +13588,7 @@
         <v>44932</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13645,7 +13645,7 @@
         <v>44958</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13702,7 +13702,7 @@
         <v>44971</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13759,7 +13759,7 @@
         <v>44977</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>44993</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>44993</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>44995</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>45022</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         <v>45027</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14101,7 +14101,7 @@
         <v>45027</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14158,7 +14158,7 @@
         <v>45027</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14215,7 +14215,7 @@
         <v>45033</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14272,7 +14272,7 @@
         <v>45048</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14329,7 +14329,7 @@
         <v>45048</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         <v>45048</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14443,7 +14443,7 @@
         <v>45050</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14500,7 +14500,7 @@
         <v>45055</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14557,7 +14557,7 @@
         <v>45055</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14614,7 +14614,7 @@
         <v>45056</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14671,7 +14671,7 @@
         <v>45070</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         <v>45070</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14785,7 +14785,7 @@
         <v>45077</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>45077</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>45078</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>45085</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>45089</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15070,7 +15070,7 @@
         <v>45097</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15127,7 +15127,7 @@
         <v>45099</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>45099</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15241,7 +15241,7 @@
         <v>45113</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15298,7 +15298,7 @@
         <v>45113</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>45148</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>45148</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>45161</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>45166</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>

--- a/Översikt GAGNEF.xlsx
+++ b/Översikt GAGNEF.xlsx
@@ -572,7 +572,7 @@
         <v>44397</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -631,31 +631,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/artfynd/A 37343-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/artfynd/A 37343-2021.xlsx", "A 37343-2021")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/kartor/A 37343-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/kartor/A 37343-2021.png", "A 37343-2021")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/knärot/A 37343-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/knärot/A 37343-2021.png", "A 37343-2021")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/klagomål/A 37343-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/klagomål/A 37343-2021.docx", "A 37343-2021")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/klagomålsmail/A 37343-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/klagomålsmail/A 37343-2021.docx", "A 37343-2021")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/tillsyn/A 37343-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/tillsyn/A 37343-2021.docx", "A 37343-2021")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/tillsynsmail/A 37343-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/tillsynsmail/A 37343-2021.docx", "A 37343-2021")</f>
         <v/>
       </c>
     </row>
@@ -669,7 +669,7 @@
         <v>44067</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -726,27 +726,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/artfynd/A 39809-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/artfynd/A 39809-2020.xlsx", "A 39809-2020")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/kartor/A 39809-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/kartor/A 39809-2020.png", "A 39809-2020")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/klagomål/A 39809-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/klagomål/A 39809-2020.docx", "A 39809-2020")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/klagomålsmail/A 39809-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/klagomålsmail/A 39809-2020.docx", "A 39809-2020")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/tillsyn/A 39809-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/tillsyn/A 39809-2020.docx", "A 39809-2020")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/tillsynsmail/A 39809-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/tillsynsmail/A 39809-2020.docx", "A 39809-2020")</f>
         <v/>
       </c>
     </row>
@@ -760,7 +760,7 @@
         <v>44896</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -816,27 +816,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/artfynd/A 57347-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/artfynd/A 57347-2022.xlsx", "A 57347-2022")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/kartor/A 57347-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/kartor/A 57347-2022.png", "A 57347-2022")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/klagomål/A 57347-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/klagomål/A 57347-2022.docx", "A 57347-2022")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/klagomålsmail/A 57347-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/klagomålsmail/A 57347-2022.docx", "A 57347-2022")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/tillsyn/A 57347-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/tillsyn/A 57347-2022.docx", "A 57347-2022")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/tillsynsmail/A 57347-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/tillsynsmail/A 57347-2022.docx", "A 57347-2022")</f>
         <v/>
       </c>
     </row>
@@ -850,7 +850,7 @@
         <v>45055</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -906,31 +906,31 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/artfynd/A 20728-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/artfynd/A 20728-2023.xlsx", "A 20728-2023")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/kartor/A 20728-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/kartor/A 20728-2023.png", "A 20728-2023")</f>
         <v/>
       </c>
       <c r="U5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/knärot/A 20728-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/knärot/A 20728-2023.png", "A 20728-2023")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/klagomål/A 20728-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/klagomål/A 20728-2023.docx", "A 20728-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/klagomålsmail/A 20728-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/klagomålsmail/A 20728-2023.docx", "A 20728-2023")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/tillsyn/A 20728-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/tillsyn/A 20728-2023.docx", "A 20728-2023")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/tillsynsmail/A 20728-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/tillsynsmail/A 20728-2023.docx", "A 20728-2023")</f>
         <v/>
       </c>
     </row>
@@ -944,7 +944,7 @@
         <v>43696</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -999,27 +999,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/artfynd/A 40359-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/artfynd/A 40359-2019.xlsx", "A 40359-2019")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/kartor/A 40359-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/kartor/A 40359-2019.png", "A 40359-2019")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/klagomål/A 40359-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/klagomål/A 40359-2019.docx", "A 40359-2019")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/klagomålsmail/A 40359-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/klagomålsmail/A 40359-2019.docx", "A 40359-2019")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/tillsyn/A 40359-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/tillsyn/A 40359-2019.docx", "A 40359-2019")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/tillsynsmail/A 40359-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/tillsynsmail/A 40359-2019.docx", "A 40359-2019")</f>
         <v/>
       </c>
     </row>
@@ -1033,7 +1033,7 @@
         <v>43700</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1088,27 +1088,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/artfynd/A 41892-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/artfynd/A 41892-2019.xlsx", "A 41892-2019")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/kartor/A 41892-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/kartor/A 41892-2019.png", "A 41892-2019")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/klagomål/A 41892-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/klagomål/A 41892-2019.docx", "A 41892-2019")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/klagomålsmail/A 41892-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/klagomålsmail/A 41892-2019.docx", "A 41892-2019")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/tillsyn/A 41892-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/tillsyn/A 41892-2019.docx", "A 41892-2019")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/tillsynsmail/A 41892-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/tillsynsmail/A 41892-2019.docx", "A 41892-2019")</f>
         <v/>
       </c>
     </row>
@@ -1122,7 +1122,7 @@
         <v>44067</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1177,27 +1177,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/artfynd/A 39885-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/artfynd/A 39885-2020.xlsx", "A 39885-2020")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/kartor/A 39885-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/kartor/A 39885-2020.png", "A 39885-2020")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/klagomål/A 39885-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/klagomål/A 39885-2020.docx", "A 39885-2020")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/klagomålsmail/A 39885-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/klagomålsmail/A 39885-2020.docx", "A 39885-2020")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/tillsyn/A 39885-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/tillsyn/A 39885-2020.docx", "A 39885-2020")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/tillsynsmail/A 39885-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/tillsynsmail/A 39885-2020.docx", "A 39885-2020")</f>
         <v/>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
         <v>44958</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1264,27 +1264,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/artfynd/A 5045-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/artfynd/A 5045-2023.xlsx", "A 5045-2023")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/kartor/A 5045-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/kartor/A 5045-2023.png", "A 5045-2023")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/klagomål/A 5045-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/klagomål/A 5045-2023.docx", "A 5045-2023")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/klagomålsmail/A 5045-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/klagomålsmail/A 5045-2023.docx", "A 5045-2023")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/tillsyn/A 5045-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/tillsyn/A 5045-2023.docx", "A 5045-2023")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/tillsynsmail/A 5045-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/tillsynsmail/A 5045-2023.docx", "A 5045-2023")</f>
         <v/>
       </c>
     </row>
@@ -1298,7 +1298,7 @@
         <v>45056</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1351,27 +1351,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/artfynd/A 20403-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/artfynd/A 20403-2023.xlsx", "A 20403-2023")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/kartor/A 20403-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/kartor/A 20403-2023.png", "A 20403-2023")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/klagomål/A 20403-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/klagomål/A 20403-2023.docx", "A 20403-2023")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/klagomålsmail/A 20403-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/klagomålsmail/A 20403-2023.docx", "A 20403-2023")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/tillsyn/A 20403-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/tillsyn/A 20403-2023.docx", "A 20403-2023")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/tillsynsmail/A 20403-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/tillsynsmail/A 20403-2023.docx", "A 20403-2023")</f>
         <v/>
       </c>
     </row>
@@ -1385,7 +1385,7 @@
         <v>44929</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1437,27 +1437,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/artfynd/A 377-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/artfynd/A 377-2023.xlsx", "A 377-2023")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/kartor/A 377-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/kartor/A 377-2023.png", "A 377-2023")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/klagomål/A 377-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/klagomål/A 377-2023.docx", "A 377-2023")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/klagomålsmail/A 377-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/klagomålsmail/A 377-2023.docx", "A 377-2023")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/tillsyn/A 377-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/tillsyn/A 377-2023.docx", "A 377-2023")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/tillsynsmail/A 377-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/tillsynsmail/A 377-2023.docx", "A 377-2023")</f>
         <v/>
       </c>
     </row>
@@ -1471,7 +1471,7 @@
         <v>43594</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1522,27 +1522,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/artfynd/A 23496-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/artfynd/A 23496-2019.xlsx", "A 23496-2019")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/kartor/A 23496-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/kartor/A 23496-2019.png", "A 23496-2019")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/klagomål/A 23496-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/klagomål/A 23496-2019.docx", "A 23496-2019")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/klagomålsmail/A 23496-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/klagomålsmail/A 23496-2019.docx", "A 23496-2019")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/tillsyn/A 23496-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/tillsyn/A 23496-2019.docx", "A 23496-2019")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/tillsynsmail/A 23496-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/tillsynsmail/A 23496-2019.docx", "A 23496-2019")</f>
         <v/>
       </c>
     </row>
@@ -1556,7 +1556,7 @@
         <v>43628</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1607,31 +1607,31 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/artfynd/A 28876-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/artfynd/A 28876-2019.xlsx", "A 28876-2019")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/kartor/A 28876-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/kartor/A 28876-2019.png", "A 28876-2019")</f>
         <v/>
       </c>
       <c r="U13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/knärot/A 28876-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/knärot/A 28876-2019.png", "A 28876-2019")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/klagomål/A 28876-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/klagomål/A 28876-2019.docx", "A 28876-2019")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/klagomålsmail/A 28876-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/klagomålsmail/A 28876-2019.docx", "A 28876-2019")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/tillsyn/A 28876-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/tillsyn/A 28876-2019.docx", "A 28876-2019")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/tillsynsmail/A 28876-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/tillsynsmail/A 28876-2019.docx", "A 28876-2019")</f>
         <v/>
       </c>
     </row>
@@ -1645,7 +1645,7 @@
         <v>43804</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1696,27 +1696,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/artfynd/A 66257-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/artfynd/A 66257-2019.xlsx", "A 66257-2019")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/kartor/A 66257-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/kartor/A 66257-2019.png", "A 66257-2019")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/klagomål/A 66257-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/klagomål/A 66257-2019.docx", "A 66257-2019")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/klagomålsmail/A 66257-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/klagomålsmail/A 66257-2019.docx", "A 66257-2019")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/tillsyn/A 66257-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/tillsyn/A 66257-2019.docx", "A 66257-2019")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/tillsynsmail/A 66257-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/tillsynsmail/A 66257-2019.docx", "A 66257-2019")</f>
         <v/>
       </c>
     </row>
@@ -1730,7 +1730,7 @@
         <v>44270</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1786,27 +1786,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/artfynd/A 12873-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/artfynd/A 12873-2021.xlsx", "A 12873-2021")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/kartor/A 12873-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/kartor/A 12873-2021.png", "A 12873-2021")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/klagomål/A 12873-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/klagomål/A 12873-2021.docx", "A 12873-2021")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/klagomålsmail/A 12873-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/klagomålsmail/A 12873-2021.docx", "A 12873-2021")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/tillsyn/A 12873-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/tillsyn/A 12873-2021.docx", "A 12873-2021")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/tillsynsmail/A 12873-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/tillsynsmail/A 12873-2021.docx", "A 12873-2021")</f>
         <v/>
       </c>
     </row>
@@ -1820,7 +1820,7 @@
         <v>44511</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1871,27 +1871,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/artfynd/A 64510-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/artfynd/A 64510-2021.xlsx", "A 64510-2021")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/kartor/A 64510-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/kartor/A 64510-2021.png", "A 64510-2021")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/klagomål/A 64510-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/klagomål/A 64510-2021.docx", "A 64510-2021")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/klagomålsmail/A 64510-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/klagomålsmail/A 64510-2021.docx", "A 64510-2021")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/tillsyn/A 64510-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/tillsyn/A 64510-2021.docx", "A 64510-2021")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/tillsynsmail/A 64510-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/tillsynsmail/A 64510-2021.docx", "A 64510-2021")</f>
         <v/>
       </c>
     </row>
@@ -1905,7 +1905,7 @@
         <v>45061</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1956,27 +1956,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/artfynd/A 20939-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/artfynd/A 20939-2023.xlsx", "A 20939-2023")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/kartor/A 20939-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/kartor/A 20939-2023.png", "A 20939-2023")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/klagomål/A 20939-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/klagomål/A 20939-2023.docx", "A 20939-2023")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/klagomålsmail/A 20939-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/klagomålsmail/A 20939-2023.docx", "A 20939-2023")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/tillsyn/A 20939-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/tillsyn/A 20939-2023.docx", "A 20939-2023")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/tillsynsmail/A 20939-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/tillsynsmail/A 20939-2023.docx", "A 20939-2023")</f>
         <v/>
       </c>
     </row>
@@ -1990,7 +1990,7 @@
         <v>45146</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2041,27 +2041,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/artfynd/A 35382-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/artfynd/A 35382-2023.xlsx", "A 35382-2023")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/kartor/A 35382-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/kartor/A 35382-2023.png", "A 35382-2023")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/klagomål/A 35382-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/klagomål/A 35382-2023.docx", "A 35382-2023")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/klagomålsmail/A 35382-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/klagomålsmail/A 35382-2023.docx", "A 35382-2023")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/tillsyn/A 35382-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/tillsyn/A 35382-2023.docx", "A 35382-2023")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/tillsynsmail/A 35382-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GAGNEF/tillsynsmail/A 35382-2023.docx", "A 35382-2023")</f>
         <v/>
       </c>
     </row>
@@ -2075,7 +2075,7 @@
         <v>43396</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>43397</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>43403</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43404</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2318,7 +2318,7 @@
         <v>43405</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>43406</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>43410</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>43413</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>43413</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>43416</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>43417</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43420</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>43420</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43430</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>43430</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43430</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43431</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43437</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43439</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43447</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         <v>43462</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         <v>43472</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         <v>43474</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3478,7 +3478,7 @@
         <v>43476</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         <v>43483</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         <v>43494</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3649,7 +3649,7 @@
         <v>43504</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>43514</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>43521</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>43528</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>43528</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         <v>43530</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
         <v>43539</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         <v>43546</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43552</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>43559</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>43564</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>43578</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>43591</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         <v>43594</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>43598</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>43601</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>43601</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>43604</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>43605</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
         <v>43605</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4789,7 +4789,7 @@
         <v>43607</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>43612</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>43619</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>43621</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>43633</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>43635</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>43636</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         <v>43636</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>43640</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         <v>43640</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         <v>43641</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         <v>43642</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>43642</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>43644</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>43644</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         <v>43648</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         <v>43650</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
         <v>43650</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         <v>43655</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         <v>43656</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5954,7 +5954,7 @@
         <v>43672</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6011,7 +6011,7 @@
         <v>43672</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6068,7 +6068,7 @@
         <v>43675</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>43684</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>43685</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         <v>43693</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6301,7 +6301,7 @@
         <v>43700</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6358,7 +6358,7 @@
         <v>43705</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6415,7 +6415,7 @@
         <v>43712</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         <v>43721</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         <v>43741</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6591,7 +6591,7 @@
         <v>43742</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6648,7 +6648,7 @@
         <v>43745</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6705,7 +6705,7 @@
         <v>43746</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6762,7 +6762,7 @@
         <v>43756</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>43762</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
         <v>43763</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6933,7 +6933,7 @@
         <v>43768</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6990,7 +6990,7 @@
         <v>43770</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7047,7 +7047,7 @@
         <v>43781</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7104,7 +7104,7 @@
         <v>43788</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>43802</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>43809</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>43811</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>43816</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>43818</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43833</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>43845</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>43845</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>43850</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>43861</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         <v>43866</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7798,7 +7798,7 @@
         <v>43920</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7855,7 +7855,7 @@
         <v>43921</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         <v>43929</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         <v>43930</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>43955</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>43968</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>43980</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         <v>43989</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8259,7 +8259,7 @@
         <v>44000</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8321,7 +8321,7 @@
         <v>44013</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8383,7 +8383,7 @@
         <v>44014</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8445,7 +8445,7 @@
         <v>44014</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>44015</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44042</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>44053</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>44076</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>44077</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8802,7 +8802,7 @@
         <v>44078</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8864,7 +8864,7 @@
         <v>44081</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8921,7 +8921,7 @@
         <v>44081</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8983,7 +8983,7 @@
         <v>44085</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         <v>44089</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>44103</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>44110</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>44111</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         <v>44113</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>44131</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9382,7 +9382,7 @@
         <v>44144</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9439,7 +9439,7 @@
         <v>44145</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44154</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>44162</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9610,7 +9610,7 @@
         <v>44165</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>44172</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>44172</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>44183</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>44186</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>44192</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>44215</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>44247</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>44253</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>44264</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>44264</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>44266</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>44320</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>44321</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>44326</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>44341</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
         <v>44376</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>44378</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10651,7 +10651,7 @@
         <v>44379</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10708,7 +10708,7 @@
         <v>44384</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10765,7 +10765,7 @@
         <v>44396</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10822,7 +10822,7 @@
         <v>44396</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10879,7 +10879,7 @@
         <v>44396</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10936,7 +10936,7 @@
         <v>44445</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10993,7 +10993,7 @@
         <v>44452</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11050,7 +11050,7 @@
         <v>44474</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         <v>44476</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11164,7 +11164,7 @@
         <v>44494</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11221,7 +11221,7 @@
         <v>44509</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11278,7 +11278,7 @@
         <v>44511</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11335,7 +11335,7 @@
         <v>44519</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         <v>44527</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
         <v>44540</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         <v>44549</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11563,7 +11563,7 @@
         <v>44559</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11620,7 +11620,7 @@
         <v>44585</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11677,7 +11677,7 @@
         <v>44601</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11734,7 +11734,7 @@
         <v>44609</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11791,7 +11791,7 @@
         <v>44627</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11848,7 +11848,7 @@
         <v>44634</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11905,7 +11905,7 @@
         <v>44662</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11962,7 +11962,7 @@
         <v>44669</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12024,7 +12024,7 @@
         <v>44671</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12081,7 +12081,7 @@
         <v>44671</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12138,7 +12138,7 @@
         <v>44671</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>44687</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12257,7 +12257,7 @@
         <v>44687</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12319,7 +12319,7 @@
         <v>44713</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12376,7 +12376,7 @@
         <v>44732</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>44747</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>44749</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>44778</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12609,7 +12609,7 @@
         <v>44811</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>44841</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>44841</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>44841</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>44865</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>44867</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>44868</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>44868</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>44875</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>44883</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>44883</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13246,7 +13246,7 @@
         <v>44887</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13303,7 +13303,7 @@
         <v>44888</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13360,7 +13360,7 @@
         <v>44895</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13417,7 +13417,7 @@
         <v>44897</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         <v>44916</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13531,7 +13531,7 @@
         <v>44918</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13588,7 +13588,7 @@
         <v>44932</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13645,7 +13645,7 @@
         <v>44958</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13702,7 +13702,7 @@
         <v>44971</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13759,7 +13759,7 @@
         <v>44977</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>44993</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>44993</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>44995</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>45022</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         <v>45027</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14101,7 +14101,7 @@
         <v>45027</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14158,7 +14158,7 @@
         <v>45027</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14215,7 +14215,7 @@
         <v>45033</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14272,7 +14272,7 @@
         <v>45048</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14329,7 +14329,7 @@
         <v>45048</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         <v>45048</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14443,7 +14443,7 @@
         <v>45050</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14500,7 +14500,7 @@
         <v>45055</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14557,7 +14557,7 @@
         <v>45055</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14614,7 +14614,7 @@
         <v>45056</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14671,7 +14671,7 @@
         <v>45070</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         <v>45070</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14785,7 +14785,7 @@
         <v>45077</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>45077</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>45078</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>45085</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>45089</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15070,7 +15070,7 @@
         <v>45097</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15127,7 +15127,7 @@
         <v>45099</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>45099</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15241,7 +15241,7 @@
         <v>45113</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15298,7 +15298,7 @@
         <v>45113</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>45148</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>45148</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>45161</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>45166</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>

--- a/Översikt GAGNEF.xlsx
+++ b/Översikt GAGNEF.xlsx
@@ -572,7 +572,7 @@
         <v>44397</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44067</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44896</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>45055</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>43696</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>43700</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44067</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>44958</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>45056</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>44929</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>43594</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>43628</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1645,7 +1645,7 @@
         <v>43804</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         <v>44270</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>44511</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         <v>45061</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>45146</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>43396</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>43397</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>43403</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43404</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2318,7 +2318,7 @@
         <v>43405</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>43406</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>43410</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>43413</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>43413</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>43416</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>43417</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43420</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>43420</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43430</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>43430</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43430</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43431</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43437</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43439</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43447</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         <v>43462</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         <v>43472</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         <v>43474</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3478,7 +3478,7 @@
         <v>43476</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         <v>43483</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         <v>43494</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3649,7 +3649,7 @@
         <v>43504</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>43514</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>43521</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>43528</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>43528</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         <v>43530</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
         <v>43539</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         <v>43546</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43552</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>43559</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>43564</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>43578</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>43591</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         <v>43594</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>43598</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>43601</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>43601</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>43604</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>43605</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
         <v>43605</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4789,7 +4789,7 @@
         <v>43607</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>43612</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>43619</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>43621</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>43633</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>43635</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>43636</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         <v>43636</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>43640</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         <v>43640</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         <v>43641</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         <v>43642</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>43642</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>43644</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>43644</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         <v>43648</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         <v>43650</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
         <v>43650</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         <v>43655</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         <v>43656</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5954,7 +5954,7 @@
         <v>43672</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6011,7 +6011,7 @@
         <v>43672</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6068,7 +6068,7 @@
         <v>43675</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>43684</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>43685</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         <v>43693</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6301,7 +6301,7 @@
         <v>43700</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6358,7 +6358,7 @@
         <v>43705</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6415,7 +6415,7 @@
         <v>43712</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         <v>43721</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         <v>43741</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6591,7 +6591,7 @@
         <v>43742</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6648,7 +6648,7 @@
         <v>43745</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6705,7 +6705,7 @@
         <v>43746</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6762,7 +6762,7 @@
         <v>43756</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>43762</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
         <v>43763</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6933,7 +6933,7 @@
         <v>43768</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6990,7 +6990,7 @@
         <v>43770</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7047,7 +7047,7 @@
         <v>43781</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7104,7 +7104,7 @@
         <v>43788</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>43802</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>43809</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>43811</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>43816</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>43818</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43833</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>43845</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>43845</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>43850</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>43861</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         <v>43866</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7798,7 +7798,7 @@
         <v>43920</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7855,7 +7855,7 @@
         <v>43921</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         <v>43929</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         <v>43930</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>43955</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>43968</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>43980</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         <v>43989</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8259,7 +8259,7 @@
         <v>44000</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8321,7 +8321,7 @@
         <v>44013</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8383,7 +8383,7 @@
         <v>44014</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8445,7 +8445,7 @@
         <v>44014</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>44015</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44042</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>44053</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>44076</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>44077</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8802,7 +8802,7 @@
         <v>44078</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8864,7 +8864,7 @@
         <v>44081</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8921,7 +8921,7 @@
         <v>44081</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8983,7 +8983,7 @@
         <v>44085</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         <v>44089</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>44103</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>44110</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>44111</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         <v>44113</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>44131</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9382,7 +9382,7 @@
         <v>44144</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9439,7 +9439,7 @@
         <v>44145</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44154</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>44162</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9610,7 +9610,7 @@
         <v>44165</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>44172</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>44172</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>44183</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>44186</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>44192</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>44215</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>44247</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>44253</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>44264</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>44264</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>44266</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>44320</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>44321</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>44326</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>44341</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
         <v>44376</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>44378</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10651,7 +10651,7 @@
         <v>44379</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10708,7 +10708,7 @@
         <v>44384</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10765,7 +10765,7 @@
         <v>44396</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10822,7 +10822,7 @@
         <v>44396</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10879,7 +10879,7 @@
         <v>44396</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10936,7 +10936,7 @@
         <v>44445</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10993,7 +10993,7 @@
         <v>44452</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11050,7 +11050,7 @@
         <v>44474</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         <v>44476</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11164,7 +11164,7 @@
         <v>44494</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11221,7 +11221,7 @@
         <v>44509</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11278,7 +11278,7 @@
         <v>44511</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11335,7 +11335,7 @@
         <v>44519</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         <v>44527</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
         <v>44540</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         <v>44549</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11563,7 +11563,7 @@
         <v>44559</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11620,7 +11620,7 @@
         <v>44585</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11677,7 +11677,7 @@
         <v>44601</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11734,7 +11734,7 @@
         <v>44609</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11791,7 +11791,7 @@
         <v>44627</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11848,7 +11848,7 @@
         <v>44634</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11905,7 +11905,7 @@
         <v>44662</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11962,7 +11962,7 @@
         <v>44669</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12024,7 +12024,7 @@
         <v>44671</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12081,7 +12081,7 @@
         <v>44671</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12138,7 +12138,7 @@
         <v>44671</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>44687</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12257,7 +12257,7 @@
         <v>44687</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12319,7 +12319,7 @@
         <v>44713</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12376,7 +12376,7 @@
         <v>44732</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>44747</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>44749</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>44778</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12609,7 +12609,7 @@
         <v>44811</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>44841</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>44841</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>44841</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>44865</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>44867</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>44868</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>44868</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>44875</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>44883</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>44883</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13246,7 +13246,7 @@
         <v>44887</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13303,7 +13303,7 @@
         <v>44888</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13360,7 +13360,7 @@
         <v>44895</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13417,7 +13417,7 @@
         <v>44897</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         <v>44916</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13531,7 +13531,7 @@
         <v>44918</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13588,7 +13588,7 @@
         <v>44932</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13645,7 +13645,7 @@
         <v>44958</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13702,7 +13702,7 @@
         <v>44971</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13759,7 +13759,7 @@
         <v>44977</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>44993</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>44993</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>44995</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>45022</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         <v>45027</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14101,7 +14101,7 @@
         <v>45027</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14158,7 +14158,7 @@
         <v>45027</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14215,7 +14215,7 @@
         <v>45033</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14272,7 +14272,7 @@
         <v>45048</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14329,7 +14329,7 @@
         <v>45048</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         <v>45048</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14443,7 +14443,7 @@
         <v>45050</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14500,7 +14500,7 @@
         <v>45055</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14557,7 +14557,7 @@
         <v>45055</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14614,7 +14614,7 @@
         <v>45056</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14671,7 +14671,7 @@
         <v>45070</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         <v>45070</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14785,7 +14785,7 @@
         <v>45077</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>45077</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>45078</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>45085</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>45089</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15070,7 +15070,7 @@
         <v>45097</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15127,7 +15127,7 @@
         <v>45099</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>45099</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15241,7 +15241,7 @@
         <v>45113</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15298,7 +15298,7 @@
         <v>45113</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>45148</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>45148</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>45161</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>45166</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>

--- a/Översikt GAGNEF.xlsx
+++ b/Översikt GAGNEF.xlsx
@@ -572,7 +572,7 @@
         <v>44397</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44067</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44896</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>45055</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>43696</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>43700</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44067</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>44958</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>45056</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>44929</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>43594</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>43628</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1645,7 +1645,7 @@
         <v>43804</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         <v>44270</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>44511</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         <v>45061</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>45146</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>43396</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>43397</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>43403</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43404</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2318,7 +2318,7 @@
         <v>43405</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>43406</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>43410</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>43413</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>43413</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>43416</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>43417</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43420</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>43420</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43430</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>43430</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43430</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43431</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43437</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43439</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43447</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         <v>43462</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         <v>43472</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         <v>43474</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3478,7 +3478,7 @@
         <v>43476</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         <v>43483</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         <v>43494</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3649,7 +3649,7 @@
         <v>43504</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>43514</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>43521</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>43528</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>43528</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         <v>43530</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
         <v>43539</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         <v>43546</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43552</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>43559</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>43564</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>43578</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>43591</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         <v>43594</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>43598</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>43601</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>43601</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>43604</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>43605</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
         <v>43605</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4789,7 +4789,7 @@
         <v>43607</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>43612</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>43619</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>43621</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>43633</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>43635</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>43636</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         <v>43636</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>43640</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         <v>43640</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         <v>43641</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         <v>43642</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>43642</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>43644</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>43644</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         <v>43648</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         <v>43650</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
         <v>43650</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         <v>43655</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         <v>43656</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5954,7 +5954,7 @@
         <v>43672</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6011,7 +6011,7 @@
         <v>43672</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6068,7 +6068,7 @@
         <v>43675</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>43684</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>43685</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         <v>43693</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6301,7 +6301,7 @@
         <v>43700</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6358,7 +6358,7 @@
         <v>43705</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6415,7 +6415,7 @@
         <v>43712</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         <v>43721</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         <v>43741</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6591,7 +6591,7 @@
         <v>43742</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6648,7 +6648,7 @@
         <v>43745</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6705,7 +6705,7 @@
         <v>43746</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6762,7 +6762,7 @@
         <v>43756</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>43762</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
         <v>43763</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6933,7 +6933,7 @@
         <v>43768</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6990,7 +6990,7 @@
         <v>43770</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7047,7 +7047,7 @@
         <v>43781</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7104,7 +7104,7 @@
         <v>43788</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>43802</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>43809</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>43811</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>43816</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>43818</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43833</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>43845</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>43845</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>43850</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>43861</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         <v>43866</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7798,7 +7798,7 @@
         <v>43920</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7855,7 +7855,7 @@
         <v>43921</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         <v>43929</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         <v>43930</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>43955</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>43968</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>43980</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         <v>43989</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8259,7 +8259,7 @@
         <v>44000</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8321,7 +8321,7 @@
         <v>44013</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8383,7 +8383,7 @@
         <v>44014</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8445,7 +8445,7 @@
         <v>44014</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>44015</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44042</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>44053</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>44076</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>44077</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8802,7 +8802,7 @@
         <v>44078</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8864,7 +8864,7 @@
         <v>44081</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8921,7 +8921,7 @@
         <v>44081</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8983,7 +8983,7 @@
         <v>44085</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         <v>44089</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>44103</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>44110</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>44111</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         <v>44113</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>44131</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9382,7 +9382,7 @@
         <v>44144</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9439,7 +9439,7 @@
         <v>44145</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44154</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>44162</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9610,7 +9610,7 @@
         <v>44165</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>44172</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>44172</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>44183</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>44186</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>44192</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>44215</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>44247</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>44253</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>44264</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>44264</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>44266</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>44320</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>44321</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>44326</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>44341</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
         <v>44376</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>44378</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10651,7 +10651,7 @@
         <v>44379</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10708,7 +10708,7 @@
         <v>44384</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10765,7 +10765,7 @@
         <v>44396</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10822,7 +10822,7 @@
         <v>44396</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10879,7 +10879,7 @@
         <v>44396</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10936,7 +10936,7 @@
         <v>44445</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10993,7 +10993,7 @@
         <v>44452</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11050,7 +11050,7 @@
         <v>44474</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         <v>44476</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11164,7 +11164,7 @@
         <v>44494</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11221,7 +11221,7 @@
         <v>44509</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11278,7 +11278,7 @@
         <v>44511</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11335,7 +11335,7 @@
         <v>44519</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         <v>44527</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
         <v>44540</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         <v>44549</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11563,7 +11563,7 @@
         <v>44559</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11620,7 +11620,7 @@
         <v>44585</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11677,7 +11677,7 @@
         <v>44601</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11734,7 +11734,7 @@
         <v>44609</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11791,7 +11791,7 @@
         <v>44627</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11848,7 +11848,7 @@
         <v>44634</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11905,7 +11905,7 @@
         <v>44662</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11962,7 +11962,7 @@
         <v>44669</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12024,7 +12024,7 @@
         <v>44671</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12081,7 +12081,7 @@
         <v>44671</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12138,7 +12138,7 @@
         <v>44671</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>44687</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12257,7 +12257,7 @@
         <v>44687</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12319,7 +12319,7 @@
         <v>44713</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12376,7 +12376,7 @@
         <v>44732</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>44747</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>44749</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>44778</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12609,7 +12609,7 @@
         <v>44811</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>44841</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>44841</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>44841</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>44865</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>44867</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>44868</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>44868</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>44875</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>44883</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>44883</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13246,7 +13246,7 @@
         <v>44887</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13303,7 +13303,7 @@
         <v>44888</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13360,7 +13360,7 @@
         <v>44895</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13417,7 +13417,7 @@
         <v>44897</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         <v>44916</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13531,7 +13531,7 @@
         <v>44918</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13588,7 +13588,7 @@
         <v>44932</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13645,7 +13645,7 @@
         <v>44958</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13702,7 +13702,7 @@
         <v>44971</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13759,7 +13759,7 @@
         <v>44977</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>44993</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>44993</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>44995</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>45022</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         <v>45027</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14101,7 +14101,7 @@
         <v>45027</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14158,7 +14158,7 @@
         <v>45027</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14215,7 +14215,7 @@
         <v>45033</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14272,7 +14272,7 @@
         <v>45048</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14329,7 +14329,7 @@
         <v>45048</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         <v>45048</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14443,7 +14443,7 @@
         <v>45050</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14500,7 +14500,7 @@
         <v>45055</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14557,7 +14557,7 @@
         <v>45055</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14614,7 +14614,7 @@
         <v>45056</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14671,7 +14671,7 @@
         <v>45070</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         <v>45070</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14785,7 +14785,7 @@
         <v>45077</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>45077</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>45078</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>45085</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>45089</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15070,7 +15070,7 @@
         <v>45097</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15127,7 +15127,7 @@
         <v>45099</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>45099</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15241,7 +15241,7 @@
         <v>45113</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15298,7 +15298,7 @@
         <v>45113</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>45148</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>45148</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>45161</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>45166</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>

--- a/Översikt GAGNEF.xlsx
+++ b/Översikt GAGNEF.xlsx
@@ -572,7 +572,7 @@
         <v>44397</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44067</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44896</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>45055</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>43696</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>43700</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44067</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>44958</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>45056</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>44929</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>43594</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>43628</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1645,7 +1645,7 @@
         <v>43804</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         <v>44270</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>44511</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         <v>45061</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>45146</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>43396</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>43397</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>43403</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43404</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2318,7 +2318,7 @@
         <v>43405</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>43406</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>43410</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>43413</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>43413</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>43416</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>43417</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43420</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>43420</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43430</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>43430</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43430</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43431</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43437</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43439</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43447</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         <v>43462</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         <v>43472</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         <v>43474</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3478,7 +3478,7 @@
         <v>43476</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         <v>43483</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         <v>43494</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3649,7 +3649,7 @@
         <v>43504</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>43514</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>43521</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>43528</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>43528</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         <v>43530</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
         <v>43539</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         <v>43546</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43552</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>43559</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>43564</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>43578</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>43591</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         <v>43594</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>43598</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>43601</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>43601</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>43604</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>43605</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
         <v>43605</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4789,7 +4789,7 @@
         <v>43607</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>43612</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>43619</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>43621</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>43633</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>43635</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>43636</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         <v>43636</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>43640</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         <v>43640</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         <v>43641</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         <v>43642</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>43642</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>43644</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>43644</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         <v>43648</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         <v>43650</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
         <v>43650</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         <v>43655</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         <v>43656</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5954,7 +5954,7 @@
         <v>43672</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6011,7 +6011,7 @@
         <v>43672</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6068,7 +6068,7 @@
         <v>43675</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>43684</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>43685</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         <v>43693</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6301,7 +6301,7 @@
         <v>43700</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6358,7 +6358,7 @@
         <v>43705</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6415,7 +6415,7 @@
         <v>43712</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         <v>43721</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         <v>43741</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6591,7 +6591,7 @@
         <v>43742</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6648,7 +6648,7 @@
         <v>43745</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6705,7 +6705,7 @@
         <v>43746</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6762,7 +6762,7 @@
         <v>43756</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>43762</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
         <v>43763</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6933,7 +6933,7 @@
         <v>43768</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6990,7 +6990,7 @@
         <v>43770</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7047,7 +7047,7 @@
         <v>43781</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7104,7 +7104,7 @@
         <v>43788</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>43802</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>43809</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>43811</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>43816</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>43818</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43833</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>43845</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>43845</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>43850</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>43861</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         <v>43866</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7798,7 +7798,7 @@
         <v>43920</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7855,7 +7855,7 @@
         <v>43921</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         <v>43929</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         <v>43930</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>43955</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>43968</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>43980</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         <v>43989</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8259,7 +8259,7 @@
         <v>44000</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8321,7 +8321,7 @@
         <v>44013</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8383,7 +8383,7 @@
         <v>44014</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8445,7 +8445,7 @@
         <v>44014</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>44015</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44042</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>44053</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>44076</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>44077</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8802,7 +8802,7 @@
         <v>44078</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8864,7 +8864,7 @@
         <v>44081</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8921,7 +8921,7 @@
         <v>44081</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8983,7 +8983,7 @@
         <v>44085</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         <v>44089</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>44103</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>44110</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>44111</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         <v>44113</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>44131</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9382,7 +9382,7 @@
         <v>44144</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9439,7 +9439,7 @@
         <v>44145</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44154</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>44162</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9610,7 +9610,7 @@
         <v>44165</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>44172</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>44172</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>44183</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>44186</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>44192</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>44215</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>44247</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>44253</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>44264</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>44264</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>44266</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>44320</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>44321</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>44326</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>44341</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
         <v>44376</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>44378</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10651,7 +10651,7 @@
         <v>44379</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10708,7 +10708,7 @@
         <v>44384</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10765,7 +10765,7 @@
         <v>44396</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10822,7 +10822,7 @@
         <v>44396</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10879,7 +10879,7 @@
         <v>44396</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10936,7 +10936,7 @@
         <v>44445</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10993,7 +10993,7 @@
         <v>44452</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11050,7 +11050,7 @@
         <v>44474</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         <v>44476</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11164,7 +11164,7 @@
         <v>44494</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11221,7 +11221,7 @@
         <v>44509</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11278,7 +11278,7 @@
         <v>44511</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11335,7 +11335,7 @@
         <v>44519</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         <v>44527</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
         <v>44540</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         <v>44549</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11563,7 +11563,7 @@
         <v>44559</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11620,7 +11620,7 @@
         <v>44585</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11677,7 +11677,7 @@
         <v>44601</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11734,7 +11734,7 @@
         <v>44609</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11791,7 +11791,7 @@
         <v>44627</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11848,7 +11848,7 @@
         <v>44634</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11905,7 +11905,7 @@
         <v>44662</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11962,7 +11962,7 @@
         <v>44669</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12024,7 +12024,7 @@
         <v>44671</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12081,7 +12081,7 @@
         <v>44671</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12138,7 +12138,7 @@
         <v>44671</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>44687</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12257,7 +12257,7 @@
         <v>44687</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12319,7 +12319,7 @@
         <v>44713</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12376,7 +12376,7 @@
         <v>44732</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>44747</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>44749</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>44778</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12609,7 +12609,7 @@
         <v>44811</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>44841</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>44841</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>44841</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>44865</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>44867</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>44868</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>44868</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>44875</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>44883</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>44883</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13246,7 +13246,7 @@
         <v>44887</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13303,7 +13303,7 @@
         <v>44888</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13360,7 +13360,7 @@
         <v>44895</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13417,7 +13417,7 @@
         <v>44897</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         <v>44916</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13531,7 +13531,7 @@
         <v>44918</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13588,7 +13588,7 @@
         <v>44932</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13645,7 +13645,7 @@
         <v>44958</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13702,7 +13702,7 @@
         <v>44971</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13759,7 +13759,7 @@
         <v>44977</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>44993</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>44993</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>44995</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>45022</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         <v>45027</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14101,7 +14101,7 @@
         <v>45027</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14158,7 +14158,7 @@
         <v>45027</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14215,7 +14215,7 @@
         <v>45033</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14272,7 +14272,7 @@
         <v>45048</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14329,7 +14329,7 @@
         <v>45048</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         <v>45048</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14443,7 +14443,7 @@
         <v>45050</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14500,7 +14500,7 @@
         <v>45055</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14557,7 +14557,7 @@
         <v>45055</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14614,7 +14614,7 @@
         <v>45056</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14671,7 +14671,7 @@
         <v>45070</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         <v>45070</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14785,7 +14785,7 @@
         <v>45077</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>45077</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>45078</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>45085</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>45089</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15070,7 +15070,7 @@
         <v>45097</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15127,7 +15127,7 @@
         <v>45099</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>45099</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15241,7 +15241,7 @@
         <v>45113</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15298,7 +15298,7 @@
         <v>45113</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>45148</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>45148</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>45161</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>45166</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>

--- a/Översikt GAGNEF.xlsx
+++ b/Översikt GAGNEF.xlsx
@@ -572,7 +572,7 @@
         <v>44397</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44067</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44896</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>45055</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>43696</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>43700</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44067</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>44958</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>45056</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>44929</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>43594</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>43628</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1645,7 +1645,7 @@
         <v>43804</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         <v>44270</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>44511</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         <v>45061</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>45146</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>43396</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>43397</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>43403</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43404</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2318,7 +2318,7 @@
         <v>43405</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>43406</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>43410</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>43413</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>43413</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>43416</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>43417</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43420</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>43420</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43430</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>43430</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43430</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43431</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43437</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43439</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43447</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         <v>43462</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         <v>43472</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         <v>43474</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3478,7 +3478,7 @@
         <v>43476</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         <v>43483</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         <v>43494</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3649,7 +3649,7 @@
         <v>43504</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>43514</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>43521</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>43528</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>43528</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         <v>43530</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
         <v>43539</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         <v>43546</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43552</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>43559</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>43564</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>43578</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>43591</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         <v>43594</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>43598</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>43601</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>43601</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>43604</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>43605</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
         <v>43605</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4789,7 +4789,7 @@
         <v>43607</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>43612</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>43619</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>43621</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>43633</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>43635</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>43636</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         <v>43636</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>43640</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         <v>43640</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         <v>43641</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         <v>43642</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>43642</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>43644</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>43644</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         <v>43648</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         <v>43650</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
         <v>43650</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         <v>43655</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         <v>43656</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5954,7 +5954,7 @@
         <v>43672</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6011,7 +6011,7 @@
         <v>43672</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6068,7 +6068,7 @@
         <v>43675</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>43684</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>43685</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         <v>43693</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6301,7 +6301,7 @@
         <v>43700</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6358,7 +6358,7 @@
         <v>43705</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6415,7 +6415,7 @@
         <v>43712</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         <v>43721</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         <v>43741</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6591,7 +6591,7 @@
         <v>43742</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6648,7 +6648,7 @@
         <v>43745</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6705,7 +6705,7 @@
         <v>43746</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6762,7 +6762,7 @@
         <v>43756</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>43762</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
         <v>43763</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6933,7 +6933,7 @@
         <v>43768</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6990,7 +6990,7 @@
         <v>43770</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7047,7 +7047,7 @@
         <v>43781</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7104,7 +7104,7 @@
         <v>43788</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>43802</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>43809</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>43811</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>43816</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>43818</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43833</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>43845</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>43845</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>43850</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>43861</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         <v>43866</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7798,7 +7798,7 @@
         <v>43920</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7855,7 +7855,7 @@
         <v>43921</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         <v>43929</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         <v>43930</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>43955</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>43968</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>43980</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         <v>43989</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8259,7 +8259,7 @@
         <v>44000</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8321,7 +8321,7 @@
         <v>44013</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8383,7 +8383,7 @@
         <v>44014</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8445,7 +8445,7 @@
         <v>44014</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>44015</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44042</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>44053</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>44076</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>44077</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8802,7 +8802,7 @@
         <v>44078</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8864,7 +8864,7 @@
         <v>44081</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8921,7 +8921,7 @@
         <v>44081</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8983,7 +8983,7 @@
         <v>44085</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         <v>44089</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>44103</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>44110</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>44111</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         <v>44113</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>44131</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9382,7 +9382,7 @@
         <v>44144</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9439,7 +9439,7 @@
         <v>44145</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44154</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>44162</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9610,7 +9610,7 @@
         <v>44165</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>44172</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>44172</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>44183</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>44186</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>44192</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>44215</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>44247</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>44253</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>44264</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>44264</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>44266</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>44320</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>44321</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>44326</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>44341</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
         <v>44376</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>44378</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10651,7 +10651,7 @@
         <v>44379</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10708,7 +10708,7 @@
         <v>44384</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10765,7 +10765,7 @@
         <v>44396</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10822,7 +10822,7 @@
         <v>44396</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10879,7 +10879,7 @@
         <v>44396</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10936,7 +10936,7 @@
         <v>44445</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10993,7 +10993,7 @@
         <v>44452</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11050,7 +11050,7 @@
         <v>44474</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         <v>44476</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11164,7 +11164,7 @@
         <v>44494</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11221,7 +11221,7 @@
         <v>44509</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11278,7 +11278,7 @@
         <v>44511</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11335,7 +11335,7 @@
         <v>44519</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         <v>44527</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
         <v>44540</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         <v>44549</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11563,7 +11563,7 @@
         <v>44559</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11620,7 +11620,7 @@
         <v>44585</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11677,7 +11677,7 @@
         <v>44601</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11734,7 +11734,7 @@
         <v>44609</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11791,7 +11791,7 @@
         <v>44627</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11848,7 +11848,7 @@
         <v>44634</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11905,7 +11905,7 @@
         <v>44662</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11962,7 +11962,7 @@
         <v>44669</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12024,7 +12024,7 @@
         <v>44671</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12081,7 +12081,7 @@
         <v>44671</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12138,7 +12138,7 @@
         <v>44671</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>44687</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12257,7 +12257,7 @@
         <v>44687</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12319,7 +12319,7 @@
         <v>44713</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12376,7 +12376,7 @@
         <v>44732</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>44747</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>44749</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>44778</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12609,7 +12609,7 @@
         <v>44811</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>44841</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>44841</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>44841</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>44865</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>44867</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>44868</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>44868</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>44875</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>44883</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>44883</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13246,7 +13246,7 @@
         <v>44887</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13303,7 +13303,7 @@
         <v>44888</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13360,7 +13360,7 @@
         <v>44895</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13417,7 +13417,7 @@
         <v>44897</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         <v>44916</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13531,7 +13531,7 @@
         <v>44918</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13588,7 +13588,7 @@
         <v>44932</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13645,7 +13645,7 @@
         <v>44958</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13702,7 +13702,7 @@
         <v>44971</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13759,7 +13759,7 @@
         <v>44977</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>44993</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>44993</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>44995</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>45022</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         <v>45027</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14101,7 +14101,7 @@
         <v>45027</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14158,7 +14158,7 @@
         <v>45027</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14215,7 +14215,7 @@
         <v>45033</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14272,7 +14272,7 @@
         <v>45048</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14329,7 +14329,7 @@
         <v>45048</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         <v>45048</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14443,7 +14443,7 @@
         <v>45050</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14500,7 +14500,7 @@
         <v>45055</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14557,7 +14557,7 @@
         <v>45055</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14614,7 +14614,7 @@
         <v>45056</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14671,7 +14671,7 @@
         <v>45070</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         <v>45070</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14785,7 +14785,7 @@
         <v>45077</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>45077</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>45078</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>45085</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>45089</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15070,7 +15070,7 @@
         <v>45097</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15127,7 +15127,7 @@
         <v>45099</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>45099</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15241,7 +15241,7 @@
         <v>45113</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15298,7 +15298,7 @@
         <v>45113</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>45148</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>45148</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>45161</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>45166</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>

--- a/Översikt GAGNEF.xlsx
+++ b/Översikt GAGNEF.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y252"/>
+  <dimension ref="A1:Y253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44397</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44067</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44896</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>45055</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>43696</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>43700</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44067</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>44958</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>45056</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>44929</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>43594</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>43628</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1645,7 +1645,7 @@
         <v>43804</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         <v>44270</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>44511</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         <v>45061</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>45146</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>43396</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>43397</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>43403</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43404</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2318,7 +2318,7 @@
         <v>43405</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>43406</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>43410</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>43413</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>43413</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>43416</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>43417</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43420</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>43420</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43430</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>43430</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43430</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43431</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43437</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43439</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43447</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         <v>43462</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         <v>43472</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         <v>43474</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3478,7 +3478,7 @@
         <v>43476</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         <v>43483</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         <v>43494</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3649,7 +3649,7 @@
         <v>43504</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>43514</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>43521</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>43528</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>43528</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         <v>43530</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
         <v>43539</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         <v>43546</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43552</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>43559</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>43564</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>43578</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>43591</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         <v>43594</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>43598</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>43601</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>43601</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>43604</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>43605</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
         <v>43605</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4789,7 +4789,7 @@
         <v>43607</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>43612</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>43619</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>43621</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>43633</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>43635</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>43636</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         <v>43636</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>43640</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         <v>43640</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         <v>43641</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         <v>43642</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>43642</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>43644</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>43644</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         <v>43648</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         <v>43650</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
         <v>43650</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         <v>43655</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         <v>43656</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5954,7 +5954,7 @@
         <v>43672</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6011,7 +6011,7 @@
         <v>43672</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6068,7 +6068,7 @@
         <v>43675</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>43684</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>43685</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         <v>43693</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6301,7 +6301,7 @@
         <v>43700</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6358,7 +6358,7 @@
         <v>43705</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6415,7 +6415,7 @@
         <v>43712</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         <v>43721</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         <v>43741</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6591,7 +6591,7 @@
         <v>43742</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6648,7 +6648,7 @@
         <v>43745</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6705,7 +6705,7 @@
         <v>43746</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6762,7 +6762,7 @@
         <v>43756</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>43762</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
         <v>43763</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6933,7 +6933,7 @@
         <v>43768</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6990,7 +6990,7 @@
         <v>43770</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7047,7 +7047,7 @@
         <v>43781</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7104,7 +7104,7 @@
         <v>43788</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>43802</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>43809</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>43811</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>43816</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>43818</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43833</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>43845</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>43845</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>43850</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>43861</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         <v>43866</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7798,7 +7798,7 @@
         <v>43920</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7855,7 +7855,7 @@
         <v>43921</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         <v>43929</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         <v>43930</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>43955</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>43968</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>43980</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         <v>43989</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8259,7 +8259,7 @@
         <v>44000</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8321,7 +8321,7 @@
         <v>44013</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8383,7 +8383,7 @@
         <v>44014</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8445,7 +8445,7 @@
         <v>44014</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>44015</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44042</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>44053</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>44076</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>44077</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8802,7 +8802,7 @@
         <v>44078</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8864,7 +8864,7 @@
         <v>44081</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8921,7 +8921,7 @@
         <v>44081</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8983,7 +8983,7 @@
         <v>44085</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         <v>44089</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>44103</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>44110</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>44111</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         <v>44113</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>44131</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9382,7 +9382,7 @@
         <v>44144</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9439,7 +9439,7 @@
         <v>44145</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44154</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>44162</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9610,7 +9610,7 @@
         <v>44165</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>44172</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>44172</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>44183</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>44186</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>44192</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>44215</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>44247</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>44253</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>44264</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>44264</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>44266</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>44320</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>44321</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>44326</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>44341</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
         <v>44376</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>44378</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10651,7 +10651,7 @@
         <v>44379</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10708,7 +10708,7 @@
         <v>44384</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10765,7 +10765,7 @@
         <v>44396</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10822,7 +10822,7 @@
         <v>44396</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10879,7 +10879,7 @@
         <v>44396</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10936,7 +10936,7 @@
         <v>44445</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10993,7 +10993,7 @@
         <v>44452</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11050,7 +11050,7 @@
         <v>44474</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         <v>44476</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11164,7 +11164,7 @@
         <v>44494</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11221,7 +11221,7 @@
         <v>44509</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11278,7 +11278,7 @@
         <v>44511</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11335,7 +11335,7 @@
         <v>44519</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         <v>44527</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
         <v>44540</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         <v>44549</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11563,7 +11563,7 @@
         <v>44559</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11620,7 +11620,7 @@
         <v>44585</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11677,7 +11677,7 @@
         <v>44601</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11734,7 +11734,7 @@
         <v>44609</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11791,7 +11791,7 @@
         <v>44627</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11848,7 +11848,7 @@
         <v>44634</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11905,7 +11905,7 @@
         <v>44662</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11962,7 +11962,7 @@
         <v>44669</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12024,7 +12024,7 @@
         <v>44671</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12081,7 +12081,7 @@
         <v>44671</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12138,7 +12138,7 @@
         <v>44671</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>44687</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12257,7 +12257,7 @@
         <v>44687</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12319,7 +12319,7 @@
         <v>44713</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12376,7 +12376,7 @@
         <v>44732</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>44747</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>44749</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>44778</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12609,7 +12609,7 @@
         <v>44811</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>44841</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>44841</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>44841</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>44865</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>44867</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>44868</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>44868</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>44875</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>44883</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>44883</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13246,7 +13246,7 @@
         <v>44887</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13303,7 +13303,7 @@
         <v>44888</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13360,7 +13360,7 @@
         <v>44895</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13417,7 +13417,7 @@
         <v>44897</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         <v>44916</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13531,7 +13531,7 @@
         <v>44918</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13588,7 +13588,7 @@
         <v>44932</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13645,7 +13645,7 @@
         <v>44958</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13702,7 +13702,7 @@
         <v>44971</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13759,7 +13759,7 @@
         <v>44977</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>44993</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>44993</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>44995</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>45022</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         <v>45027</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14101,7 +14101,7 @@
         <v>45027</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14158,7 +14158,7 @@
         <v>45027</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14215,7 +14215,7 @@
         <v>45033</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14272,7 +14272,7 @@
         <v>45048</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14329,7 +14329,7 @@
         <v>45048</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         <v>45048</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14443,7 +14443,7 @@
         <v>45050</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14500,7 +14500,7 @@
         <v>45055</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14557,7 +14557,7 @@
         <v>45055</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14614,7 +14614,7 @@
         <v>45056</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14671,7 +14671,7 @@
         <v>45070</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         <v>45070</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14785,7 +14785,7 @@
         <v>45077</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>45077</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>45078</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>45085</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>45089</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15070,7 +15070,7 @@
         <v>45097</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15127,7 +15127,7 @@
         <v>45099</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>45099</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15241,7 +15241,7 @@
         <v>45113</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15298,7 +15298,7 @@
         <v>45113</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>45148</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>45148</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>45161</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15521,7 +15521,7 @@
       </c>
       <c r="R251" s="2" t="inlineStr"/>
     </row>
-    <row r="252">
+    <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
           <t>A 39367-2023</t>
@@ -15531,7 +15531,7 @@
         <v>45166</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15582,6 +15582,63 @@
         <v>0</v>
       </c>
       <c r="R252" s="2" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>A 45421-2023</t>
+        </is>
+      </c>
+      <c r="B253" s="1" t="n">
+        <v>45194</v>
+      </c>
+      <c r="C253" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>GAGNEF</t>
+        </is>
+      </c>
+      <c r="G253" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="n">
+        <v>0</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
+      <c r="K253" t="n">
+        <v>0</v>
+      </c>
+      <c r="L253" t="n">
+        <v>0</v>
+      </c>
+      <c r="M253" t="n">
+        <v>0</v>
+      </c>
+      <c r="N253" t="n">
+        <v>0</v>
+      </c>
+      <c r="O253" t="n">
+        <v>0</v>
+      </c>
+      <c r="P253" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q253" t="n">
+        <v>0</v>
+      </c>
+      <c r="R253" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt GAGNEF.xlsx
+++ b/Översikt GAGNEF.xlsx
@@ -572,7 +572,7 @@
         <v>44397</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44067</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44896</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>45055</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>43696</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>43700</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44067</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>44958</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>45056</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>44929</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>43594</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>43628</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1645,7 +1645,7 @@
         <v>43804</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         <v>44270</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>44511</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         <v>45061</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>45146</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>43396</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>43397</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>43403</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43404</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2318,7 +2318,7 @@
         <v>43405</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>43406</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>43410</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>43413</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>43413</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>43416</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>43417</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43420</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>43420</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43430</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>43430</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43430</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43431</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43437</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43439</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43447</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         <v>43462</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         <v>43472</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         <v>43474</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3478,7 +3478,7 @@
         <v>43476</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         <v>43483</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         <v>43494</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3649,7 +3649,7 @@
         <v>43504</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>43514</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>43521</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>43528</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>43528</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         <v>43530</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
         <v>43539</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         <v>43546</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43552</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>43559</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>43564</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>43578</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>43591</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         <v>43594</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>43598</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>43601</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>43601</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>43604</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>43605</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
         <v>43605</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4789,7 +4789,7 @@
         <v>43607</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>43612</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>43619</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>43621</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>43633</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>43635</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>43636</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         <v>43636</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>43640</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         <v>43640</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         <v>43641</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         <v>43642</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>43642</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>43644</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>43644</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         <v>43648</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         <v>43650</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
         <v>43650</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         <v>43655</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         <v>43656</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5954,7 +5954,7 @@
         <v>43672</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6011,7 +6011,7 @@
         <v>43672</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6068,7 +6068,7 @@
         <v>43675</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>43684</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>43685</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         <v>43693</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6301,7 +6301,7 @@
         <v>43700</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6358,7 +6358,7 @@
         <v>43705</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6415,7 +6415,7 @@
         <v>43712</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         <v>43721</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         <v>43741</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6591,7 +6591,7 @@
         <v>43742</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6648,7 +6648,7 @@
         <v>43745</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6705,7 +6705,7 @@
         <v>43746</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6762,7 +6762,7 @@
         <v>43756</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>43762</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
         <v>43763</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6933,7 +6933,7 @@
         <v>43768</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6990,7 +6990,7 @@
         <v>43770</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7047,7 +7047,7 @@
         <v>43781</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7104,7 +7104,7 @@
         <v>43788</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>43802</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>43809</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>43811</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>43816</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>43818</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43833</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>43845</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>43845</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>43850</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>43861</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         <v>43866</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7798,7 +7798,7 @@
         <v>43920</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7855,7 +7855,7 @@
         <v>43921</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         <v>43929</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         <v>43930</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>43955</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>43968</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>43980</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         <v>43989</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8259,7 +8259,7 @@
         <v>44000</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8321,7 +8321,7 @@
         <v>44013</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8383,7 +8383,7 @@
         <v>44014</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8445,7 +8445,7 @@
         <v>44014</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>44015</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44042</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>44053</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>44076</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>44077</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8802,7 +8802,7 @@
         <v>44078</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8864,7 +8864,7 @@
         <v>44081</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8921,7 +8921,7 @@
         <v>44081</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8983,7 +8983,7 @@
         <v>44085</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         <v>44089</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>44103</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>44110</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>44111</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         <v>44113</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>44131</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9382,7 +9382,7 @@
         <v>44144</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9439,7 +9439,7 @@
         <v>44145</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44154</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>44162</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9610,7 +9610,7 @@
         <v>44165</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>44172</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>44172</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>44183</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>44186</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>44192</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>44215</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>44247</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>44253</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>44264</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>44264</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>44266</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>44320</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>44321</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>44326</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>44341</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
         <v>44376</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>44378</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10651,7 +10651,7 @@
         <v>44379</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10708,7 +10708,7 @@
         <v>44384</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10765,7 +10765,7 @@
         <v>44396</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10822,7 +10822,7 @@
         <v>44396</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10879,7 +10879,7 @@
         <v>44396</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10936,7 +10936,7 @@
         <v>44445</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10993,7 +10993,7 @@
         <v>44452</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11050,7 +11050,7 @@
         <v>44474</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         <v>44476</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11164,7 +11164,7 @@
         <v>44494</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11221,7 +11221,7 @@
         <v>44509</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11278,7 +11278,7 @@
         <v>44511</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11335,7 +11335,7 @@
         <v>44519</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         <v>44527</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
         <v>44540</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         <v>44549</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11563,7 +11563,7 @@
         <v>44559</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11620,7 +11620,7 @@
         <v>44585</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11677,7 +11677,7 @@
         <v>44601</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11734,7 +11734,7 @@
         <v>44609</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11791,7 +11791,7 @@
         <v>44627</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11848,7 +11848,7 @@
         <v>44634</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11905,7 +11905,7 @@
         <v>44662</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11962,7 +11962,7 @@
         <v>44669</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12024,7 +12024,7 @@
         <v>44671</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12081,7 +12081,7 @@
         <v>44671</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12138,7 +12138,7 @@
         <v>44671</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>44687</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12257,7 +12257,7 @@
         <v>44687</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12319,7 +12319,7 @@
         <v>44713</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12376,7 +12376,7 @@
         <v>44732</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>44747</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>44749</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>44778</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12609,7 +12609,7 @@
         <v>44811</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>44841</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>44841</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>44841</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>44865</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>44867</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>44868</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>44868</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>44875</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>44883</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>44883</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13246,7 +13246,7 @@
         <v>44887</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13303,7 +13303,7 @@
         <v>44888</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13360,7 +13360,7 @@
         <v>44895</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13417,7 +13417,7 @@
         <v>44897</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         <v>44916</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13531,7 +13531,7 @@
         <v>44918</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13588,7 +13588,7 @@
         <v>44932</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13645,7 +13645,7 @@
         <v>44958</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13702,7 +13702,7 @@
         <v>44971</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13759,7 +13759,7 @@
         <v>44977</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>44993</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>44993</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>44995</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>45022</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         <v>45027</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14101,7 +14101,7 @@
         <v>45027</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14158,7 +14158,7 @@
         <v>45027</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14215,7 +14215,7 @@
         <v>45033</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14272,7 +14272,7 @@
         <v>45048</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14329,7 +14329,7 @@
         <v>45048</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         <v>45048</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14443,7 +14443,7 @@
         <v>45050</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14500,7 +14500,7 @@
         <v>45055</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14557,7 +14557,7 @@
         <v>45055</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14614,7 +14614,7 @@
         <v>45056</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14671,7 +14671,7 @@
         <v>45070</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         <v>45070</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14785,7 +14785,7 @@
         <v>45077</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>45077</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>45078</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>45085</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>45089</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15070,7 +15070,7 @@
         <v>45097</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15127,7 +15127,7 @@
         <v>45099</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>45099</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15241,7 +15241,7 @@
         <v>45113</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15298,7 +15298,7 @@
         <v>45113</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>45148</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>45148</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>45161</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>45166</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15593,7 +15593,7 @@
         <v>45194</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>

--- a/Översikt GAGNEF.xlsx
+++ b/Översikt GAGNEF.xlsx
@@ -572,7 +572,7 @@
         <v>44397</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44067</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44896</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>45055</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>43696</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>43700</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44067</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>44958</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>45056</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>44929</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>43594</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>43628</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1645,7 +1645,7 @@
         <v>43804</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         <v>44270</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>44511</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         <v>45061</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>45146</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>43396</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>43397</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>43403</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43404</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2318,7 +2318,7 @@
         <v>43405</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>43406</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>43410</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>43413</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>43413</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>43416</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>43417</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43420</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>43420</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43430</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>43430</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43430</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43431</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43437</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43439</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43447</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         <v>43462</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         <v>43472</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         <v>43474</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3478,7 +3478,7 @@
         <v>43476</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         <v>43483</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         <v>43494</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3649,7 +3649,7 @@
         <v>43504</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>43514</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>43521</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>43528</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>43528</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         <v>43530</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
         <v>43539</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         <v>43546</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43552</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>43559</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>43564</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>43578</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>43591</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         <v>43594</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>43598</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>43601</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>43601</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>43604</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>43605</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
         <v>43605</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4789,7 +4789,7 @@
         <v>43607</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>43612</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>43619</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>43621</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>43633</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>43635</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>43636</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         <v>43636</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>43640</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         <v>43640</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         <v>43641</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         <v>43642</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>43642</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>43644</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>43644</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         <v>43648</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         <v>43650</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
         <v>43650</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         <v>43655</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         <v>43656</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5954,7 +5954,7 @@
         <v>43672</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6011,7 +6011,7 @@
         <v>43672</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6068,7 +6068,7 @@
         <v>43675</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>43684</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>43685</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         <v>43693</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6301,7 +6301,7 @@
         <v>43700</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6358,7 +6358,7 @@
         <v>43705</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6415,7 +6415,7 @@
         <v>43712</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         <v>43721</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         <v>43741</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6591,7 +6591,7 @@
         <v>43742</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6648,7 +6648,7 @@
         <v>43745</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6705,7 +6705,7 @@
         <v>43746</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6762,7 +6762,7 @@
         <v>43756</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>43762</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
         <v>43763</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6933,7 +6933,7 @@
         <v>43768</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6990,7 +6990,7 @@
         <v>43770</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7047,7 +7047,7 @@
         <v>43781</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7104,7 +7104,7 @@
         <v>43788</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>43802</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>43809</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>43811</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>43816</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>43818</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43833</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>43845</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>43845</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>43850</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>43861</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         <v>43866</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7798,7 +7798,7 @@
         <v>43920</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7855,7 +7855,7 @@
         <v>43921</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         <v>43929</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         <v>43930</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>43955</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>43968</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>43980</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         <v>43989</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8259,7 +8259,7 @@
         <v>44000</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8321,7 +8321,7 @@
         <v>44013</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8383,7 +8383,7 @@
         <v>44014</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8445,7 +8445,7 @@
         <v>44014</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>44015</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44042</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>44053</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>44076</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>44077</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8802,7 +8802,7 @@
         <v>44078</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8864,7 +8864,7 @@
         <v>44081</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8921,7 +8921,7 @@
         <v>44081</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8983,7 +8983,7 @@
         <v>44085</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         <v>44089</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>44103</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>44110</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>44111</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         <v>44113</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>44131</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9382,7 +9382,7 @@
         <v>44144</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9439,7 +9439,7 @@
         <v>44145</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44154</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>44162</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9610,7 +9610,7 @@
         <v>44165</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>44172</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>44172</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>44183</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>44186</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>44192</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>44215</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>44247</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>44253</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>44264</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>44264</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>44266</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>44320</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>44321</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>44326</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>44341</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
         <v>44376</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>44378</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10651,7 +10651,7 @@
         <v>44379</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10708,7 +10708,7 @@
         <v>44384</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10765,7 +10765,7 @@
         <v>44396</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10822,7 +10822,7 @@
         <v>44396</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10879,7 +10879,7 @@
         <v>44396</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10936,7 +10936,7 @@
         <v>44445</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10993,7 +10993,7 @@
         <v>44452</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11050,7 +11050,7 @@
         <v>44474</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         <v>44476</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11164,7 +11164,7 @@
         <v>44494</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11221,7 +11221,7 @@
         <v>44509</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11278,7 +11278,7 @@
         <v>44511</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11335,7 +11335,7 @@
         <v>44519</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         <v>44527</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
         <v>44540</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         <v>44549</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11563,7 +11563,7 @@
         <v>44559</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11620,7 +11620,7 @@
         <v>44585</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11677,7 +11677,7 @@
         <v>44601</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11734,7 +11734,7 @@
         <v>44609</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11791,7 +11791,7 @@
         <v>44627</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11848,7 +11848,7 @@
         <v>44634</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11905,7 +11905,7 @@
         <v>44662</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11962,7 +11962,7 @@
         <v>44669</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12024,7 +12024,7 @@
         <v>44671</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12081,7 +12081,7 @@
         <v>44671</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12138,7 +12138,7 @@
         <v>44671</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>44687</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12257,7 +12257,7 @@
         <v>44687</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12319,7 +12319,7 @@
         <v>44713</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12376,7 +12376,7 @@
         <v>44732</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>44747</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>44749</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>44778</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12609,7 +12609,7 @@
         <v>44811</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>44841</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>44841</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>44841</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>44865</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>44867</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>44868</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>44868</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>44875</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>44883</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>44883</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13246,7 +13246,7 @@
         <v>44887</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13303,7 +13303,7 @@
         <v>44888</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13360,7 +13360,7 @@
         <v>44895</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13417,7 +13417,7 @@
         <v>44897</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         <v>44916</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13531,7 +13531,7 @@
         <v>44918</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13588,7 +13588,7 @@
         <v>44932</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13645,7 +13645,7 @@
         <v>44958</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13702,7 +13702,7 @@
         <v>44971</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13759,7 +13759,7 @@
         <v>44977</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>44993</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>44993</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>44995</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>45022</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         <v>45027</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14101,7 +14101,7 @@
         <v>45027</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14158,7 +14158,7 @@
         <v>45027</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14215,7 +14215,7 @@
         <v>45033</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14272,7 +14272,7 @@
         <v>45048</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14329,7 +14329,7 @@
         <v>45048</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         <v>45048</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14443,7 +14443,7 @@
         <v>45050</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14500,7 +14500,7 @@
         <v>45055</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14557,7 +14557,7 @@
         <v>45055</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14614,7 +14614,7 @@
         <v>45056</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14671,7 +14671,7 @@
         <v>45070</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         <v>45070</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14785,7 +14785,7 @@
         <v>45077</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>45077</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>45078</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>45085</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>45089</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15070,7 +15070,7 @@
         <v>45097</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15127,7 +15127,7 @@
         <v>45099</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>45099</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15241,7 +15241,7 @@
         <v>45113</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15298,7 +15298,7 @@
         <v>45113</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>45148</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>45148</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>45161</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>45166</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15593,7 +15593,7 @@
         <v>45194</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>

--- a/Översikt GAGNEF.xlsx
+++ b/Översikt GAGNEF.xlsx
@@ -572,7 +572,7 @@
         <v>44397</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44067</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44896</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>45055</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>43696</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>43700</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44067</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>44958</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>45056</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>44929</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>43594</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>43628</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1645,7 +1645,7 @@
         <v>43804</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         <v>44270</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>44511</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         <v>45061</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>45146</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>43396</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>43397</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>43403</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43404</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2318,7 +2318,7 @@
         <v>43405</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>43406</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>43410</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>43413</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>43413</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>43416</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>43417</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43420</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>43420</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43430</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>43430</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43430</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43431</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43437</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43439</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43447</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         <v>43462</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         <v>43472</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         <v>43474</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3478,7 +3478,7 @@
         <v>43476</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         <v>43483</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         <v>43494</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3649,7 +3649,7 @@
         <v>43504</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>43514</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>43521</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>43528</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>43528</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         <v>43530</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
         <v>43539</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         <v>43546</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43552</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>43559</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>43564</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>43578</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>43591</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         <v>43594</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>43598</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>43601</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>43601</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>43604</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>43605</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
         <v>43605</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4789,7 +4789,7 @@
         <v>43607</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>43612</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>43619</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>43621</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>43633</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>43635</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>43636</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         <v>43636</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>43640</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         <v>43640</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         <v>43641</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         <v>43642</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>43642</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>43644</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>43644</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         <v>43648</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         <v>43650</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
         <v>43650</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         <v>43655</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         <v>43656</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5954,7 +5954,7 @@
         <v>43672</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6011,7 +6011,7 @@
         <v>43672</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6068,7 +6068,7 @@
         <v>43675</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>43684</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>43685</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         <v>43693</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6301,7 +6301,7 @@
         <v>43700</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6358,7 +6358,7 @@
         <v>43705</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6415,7 +6415,7 @@
         <v>43712</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         <v>43721</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         <v>43741</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6591,7 +6591,7 @@
         <v>43742</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6648,7 +6648,7 @@
         <v>43745</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6705,7 +6705,7 @@
         <v>43746</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6762,7 +6762,7 @@
         <v>43756</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>43762</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
         <v>43763</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6933,7 +6933,7 @@
         <v>43768</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6990,7 +6990,7 @@
         <v>43770</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7047,7 +7047,7 @@
         <v>43781</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7104,7 +7104,7 @@
         <v>43788</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>43802</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>43809</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>43811</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>43816</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>43818</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43833</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>43845</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>43845</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>43850</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>43861</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         <v>43866</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7798,7 +7798,7 @@
         <v>43920</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7855,7 +7855,7 @@
         <v>43921</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         <v>43929</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         <v>43930</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>43955</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>43968</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>43980</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         <v>43989</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8259,7 +8259,7 @@
         <v>44000</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8321,7 +8321,7 @@
         <v>44013</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8383,7 +8383,7 @@
         <v>44014</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8445,7 +8445,7 @@
         <v>44014</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>44015</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44042</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>44053</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>44076</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>44077</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8802,7 +8802,7 @@
         <v>44078</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8864,7 +8864,7 @@
         <v>44081</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8921,7 +8921,7 @@
         <v>44081</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8983,7 +8983,7 @@
         <v>44085</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         <v>44089</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>44103</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>44110</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>44111</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         <v>44113</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>44131</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9382,7 +9382,7 @@
         <v>44144</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9439,7 +9439,7 @@
         <v>44145</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44154</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>44162</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9610,7 +9610,7 @@
         <v>44165</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>44172</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>44172</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>44183</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>44186</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>44192</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>44215</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>44247</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>44253</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>44264</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>44264</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>44266</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>44320</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>44321</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>44326</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>44341</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
         <v>44376</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>44378</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10651,7 +10651,7 @@
         <v>44379</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10708,7 +10708,7 @@
         <v>44384</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10765,7 +10765,7 @@
         <v>44396</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10822,7 +10822,7 @@
         <v>44396</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10879,7 +10879,7 @@
         <v>44396</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10936,7 +10936,7 @@
         <v>44445</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10993,7 +10993,7 @@
         <v>44452</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11050,7 +11050,7 @@
         <v>44474</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         <v>44476</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11164,7 +11164,7 @@
         <v>44494</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11221,7 +11221,7 @@
         <v>44509</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11278,7 +11278,7 @@
         <v>44511</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11335,7 +11335,7 @@
         <v>44519</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         <v>44527</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
         <v>44540</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         <v>44549</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11563,7 +11563,7 @@
         <v>44559</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11620,7 +11620,7 @@
         <v>44585</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11677,7 +11677,7 @@
         <v>44601</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11734,7 +11734,7 @@
         <v>44609</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11791,7 +11791,7 @@
         <v>44627</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11848,7 +11848,7 @@
         <v>44634</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11905,7 +11905,7 @@
         <v>44662</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11962,7 +11962,7 @@
         <v>44669</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12024,7 +12024,7 @@
         <v>44671</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12081,7 +12081,7 @@
         <v>44671</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12138,7 +12138,7 @@
         <v>44671</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>44687</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12257,7 +12257,7 @@
         <v>44687</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12319,7 +12319,7 @@
         <v>44713</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12376,7 +12376,7 @@
         <v>44732</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>44747</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>44749</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>44778</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12609,7 +12609,7 @@
         <v>44811</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>44841</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>44841</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>44841</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>44865</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>44867</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>44868</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>44868</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>44875</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>44883</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>44883</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13246,7 +13246,7 @@
         <v>44887</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13303,7 +13303,7 @@
         <v>44888</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13360,7 +13360,7 @@
         <v>44895</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13417,7 +13417,7 @@
         <v>44897</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         <v>44916</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13531,7 +13531,7 @@
         <v>44918</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13588,7 +13588,7 @@
         <v>44932</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13645,7 +13645,7 @@
         <v>44958</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13702,7 +13702,7 @@
         <v>44971</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13759,7 +13759,7 @@
         <v>44977</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>44993</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>44993</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>44995</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>45022</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         <v>45027</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14101,7 +14101,7 @@
         <v>45027</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14158,7 +14158,7 @@
         <v>45027</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14215,7 +14215,7 @@
         <v>45033</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14272,7 +14272,7 @@
         <v>45048</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14329,7 +14329,7 @@
         <v>45048</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         <v>45048</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14443,7 +14443,7 @@
         <v>45050</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14500,7 +14500,7 @@
         <v>45055</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14557,7 +14557,7 @@
         <v>45055</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14614,7 +14614,7 @@
         <v>45056</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14671,7 +14671,7 @@
         <v>45070</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         <v>45070</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14785,7 +14785,7 @@
         <v>45077</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>45077</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>45078</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>45085</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>45089</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15070,7 +15070,7 @@
         <v>45097</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15127,7 +15127,7 @@
         <v>45099</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>45099</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15241,7 +15241,7 @@
         <v>45113</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15298,7 +15298,7 @@
         <v>45113</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>45148</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>45148</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>45161</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>45166</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15593,7 +15593,7 @@
         <v>45194</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>

--- a/Översikt GAGNEF.xlsx
+++ b/Översikt GAGNEF.xlsx
@@ -572,7 +572,7 @@
         <v>44397</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44067</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44896</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>45055</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>43696</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         <v>43700</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44067</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>44958</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>45056</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
         <v>44929</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>43594</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>43628</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1645,7 +1645,7 @@
         <v>43804</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         <v>44270</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>44511</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         <v>45061</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>45146</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>43396</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>43397</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>43403</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43404</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2318,7 +2318,7 @@
         <v>43405</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>43406</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>43410</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>43413</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>43413</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>43416</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>43417</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>43420</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         <v>43420</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>43430</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>43430</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>43430</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         <v>43431</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>43437</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>43439</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>43444</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>43447</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         <v>43462</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         <v>43472</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         <v>43474</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3478,7 +3478,7 @@
         <v>43476</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         <v>43483</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         <v>43494</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3649,7 +3649,7 @@
         <v>43504</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
         <v>43514</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>43521</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>43528</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>43528</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         <v>43530</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
         <v>43539</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         <v>43546</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         <v>43552</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         <v>43559</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>43564</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>43578</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>43591</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         <v>43594</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>43598</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>43601</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>43601</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>43604</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>43605</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
         <v>43605</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4789,7 +4789,7 @@
         <v>43607</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         <v>43612</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>43619</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4965,7 +4965,7 @@
         <v>43621</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>43633</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>43635</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>43636</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         <v>43636</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>43640</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         <v>43640</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         <v>43641</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         <v>43642</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>43642</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>43644</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>43644</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         <v>43648</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         <v>43650</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
         <v>43650</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         <v>43655</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         <v>43656</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5954,7 +5954,7 @@
         <v>43672</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6011,7 +6011,7 @@
         <v>43672</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6068,7 +6068,7 @@
         <v>43675</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>43684</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>43685</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         <v>43693</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6301,7 +6301,7 @@
         <v>43700</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6358,7 +6358,7 @@
         <v>43705</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6415,7 +6415,7 @@
         <v>43712</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         <v>43721</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         <v>43741</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6591,7 +6591,7 @@
         <v>43742</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6648,7 +6648,7 @@
         <v>43745</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6705,7 +6705,7 @@
         <v>43746</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6762,7 +6762,7 @@
         <v>43756</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>43762</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
         <v>43763</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6933,7 +6933,7 @@
         <v>43768</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6990,7 +6990,7 @@
         <v>43770</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7047,7 +7047,7 @@
         <v>43781</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7104,7 +7104,7 @@
         <v>43788</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>43802</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>43809</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>43811</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>43816</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>43818</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7451,7 +7451,7 @@
         <v>43833</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>43845</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>43845</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>43850</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>43861</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         <v>43866</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7798,7 +7798,7 @@
         <v>43920</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7855,7 +7855,7 @@
         <v>43921</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         <v>43929</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         <v>43930</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>43955</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>43968</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>43980</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         <v>43989</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8259,7 +8259,7 @@
         <v>44000</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8321,7 +8321,7 @@
         <v>44013</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8383,7 +8383,7 @@
         <v>44014</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8445,7 +8445,7 @@
         <v>44014</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>44015</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44042</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>44053</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>44076</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>44077</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8802,7 +8802,7 @@
         <v>44078</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8864,7 +8864,7 @@
         <v>44081</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8921,7 +8921,7 @@
         <v>44081</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8983,7 +8983,7 @@
         <v>44085</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         <v>44089</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>44103</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>44110</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>44111</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         <v>44113</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>44131</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9382,7 +9382,7 @@
         <v>44144</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9439,7 +9439,7 @@
         <v>44145</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44154</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>44162</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9610,7 +9610,7 @@
         <v>44165</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>44172</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>44172</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>44183</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>44186</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>44192</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>44215</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>44247</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>44253</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>44264</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>44264</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>44266</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>44320</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>44321</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>44326</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>44341</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
         <v>44376</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>44378</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10651,7 +10651,7 @@
         <v>44379</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10708,7 +10708,7 @@
         <v>44384</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10765,7 +10765,7 @@
         <v>44396</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10822,7 +10822,7 @@
         <v>44396</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10879,7 +10879,7 @@
         <v>44396</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10936,7 +10936,7 @@
         <v>44445</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10993,7 +10993,7 @@
         <v>44452</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11050,7 +11050,7 @@
         <v>44474</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         <v>44476</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11164,7 +11164,7 @@
         <v>44494</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11221,7 +11221,7 @@
         <v>44509</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11278,7 +11278,7 @@
         <v>44511</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11335,7 +11335,7 @@
         <v>44519</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         <v>44527</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
         <v>44540</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         <v>44549</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11563,7 +11563,7 @@
         <v>44559</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11620,7 +11620,7 @@
         <v>44585</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11677,7 +11677,7 @@
         <v>44601</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11734,7 +11734,7 @@
         <v>44609</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11791,7 +11791,7 @@
         <v>44627</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11848,7 +11848,7 @@
         <v>44634</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11905,7 +11905,7 @@
         <v>44662</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11962,7 +11962,7 @@
         <v>44669</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12024,7 +12024,7 @@
         <v>44671</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12081,7 +12081,7 @@
         <v>44671</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12138,7 +12138,7 @@
         <v>44671</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>44687</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12257,7 +12257,7 @@
         <v>44687</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12319,7 +12319,7 @@
         <v>44713</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12376,7 +12376,7 @@
         <v>44732</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>44747</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>44749</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>44778</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12609,7 +12609,7 @@
         <v>44811</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>44841</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>44841</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>44841</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>44865</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>44867</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>44868</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>44868</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>44875</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>44883</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>44883</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13246,7 +13246,7 @@
         <v>44887</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13303,7 +13303,7 @@
         <v>44888</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13360,7 +13360,7 @@
         <v>44895</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13417,7 +13417,7 @@
         <v>44897</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         <v>44916</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13531,7 +13531,7 @@
         <v>44918</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13588,7 +13588,7 @@
         <v>44932</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13645,7 +13645,7 @@
         <v>44958</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13702,7 +13702,7 @@
         <v>44971</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13759,7 +13759,7 @@
         <v>44977</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>44993</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13873,7 +13873,7 @@
         <v>44993</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>44995</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         <v>45022</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         <v>45027</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14101,7 +14101,7 @@
         <v>45027</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14158,7 +14158,7 @@
         <v>45027</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14215,7 +14215,7 @@
         <v>45033</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14272,7 +14272,7 @@
         <v>45048</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14329,7 +14329,7 @@
         <v>45048</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         <v>45048</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14443,7 +14443,7 @@
         <v>45050</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14500,7 +14500,7 @@
         <v>45055</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14557,7 +14557,7 @@
         <v>45055</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14614,7 +14614,7 @@
         <v>45056</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14671,7 +14671,7 @@
         <v>45070</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         <v>45070</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14785,7 +14785,7 @@
         <v>45077</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>45077</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>45078</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>45085</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>45089</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15070,7 +15070,7 @@
         <v>45097</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15127,7 +15127,7 @@
         <v>45099</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>45099</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15241,7 +15241,7 @@
         <v>45113</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15298,7 +15298,7 @@
         <v>45113</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>45148</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>45148</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>45161</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>45166</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15593,7 +15593,7 @@
         <v>45194</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
